--- a/Supplies.xlsx
+++ b/Supplies.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8982" activeTab="2"/>
+    <workbookView windowHeight="13760"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Estimate (Inspired)" sheetId="2" r:id="rId1"/>
     <sheet name="Capital Estimate (DIY)" sheetId="3" r:id="rId2"/>
     <sheet name="Suppliers" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
   <si>
     <t>Quantity</t>
   </si>
@@ -138,10 +151,16 @@
     <t>Silver-White 30mL Bottle</t>
   </si>
   <si>
+    <t>Shoppe</t>
+  </si>
+  <si>
     <t>JM Blackberry &amp; Bay</t>
   </si>
   <si>
     <t>White Label Sticker 3 Rolls</t>
+  </si>
+  <si>
+    <t>Silver-White 30mL Bottle x10</t>
   </si>
   <si>
     <t>Qty</t>
@@ -342,15 +361,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="[$₱-464]#,##0.00_);[Red]\([$₱-464]#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="[$₱-3409]#,##0.00_);[Red]\([$₱-3409]#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="[$₱-3409]#,##0.00_);[Red]\([$₱-3409]#,##0.00\)"/>
+    <numFmt numFmtId="183" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -541,7 +561,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,19 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBE5D5"/>
         <bgColor rgb="FFFBE5D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,7 +959,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,16 +983,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -987,85 +1001,85 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,94 +1126,91 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,7 +1219,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1691,20 +1705,20 @@
   <sheetPr/>
   <dimension ref="A1:G1010"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="38.4298245614035" customWidth="1"/>
-    <col min="2" max="2" width="8.8421052631579" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.6052631578947" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.4473684210526" customWidth="1"/>
-    <col min="5" max="5" width="24.7105263157895" customWidth="1"/>
-    <col min="6" max="6" width="17.7719298245614" customWidth="1"/>
-    <col min="7" max="7" width="16.8157894736842" customWidth="1"/>
-    <col min="8" max="26" width="8.85964912280702" customWidth="1"/>
+    <col min="1" max="1" width="38.4296875" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.6015625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.4453125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7734375" customWidth="1"/>
+    <col min="7" max="7" width="16.8125" customWidth="1"/>
+    <col min="8" max="26" width="8.859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="2:6">
@@ -1747,12 +1761,12 @@
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="30">
         <v>157.89</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="13">
@@ -1765,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:6">
       <c r="A5" s="12" t="s">
@@ -1783,7 +1797,7 @@
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="30">
         <v>330.34</v>
       </c>
     </row>
@@ -1801,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:6">
       <c r="A7" s="12" t="s">
@@ -1817,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:6">
       <c r="A8" s="12" t="s">
@@ -1833,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:6">
       <c r="A9" s="12" t="s">
@@ -1849,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13">
@@ -1865,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:6">
       <c r="A11" s="12" t="s">
@@ -1880,15 +1894,15 @@
       <c r="D11" s="13">
         <v>0</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="30">
         <v>708.31</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="13">
@@ -1900,8 +1914,8 @@
       <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:6">
       <c r="A13" s="12" t="s">
@@ -1919,12 +1933,12 @@
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="30">
         <v>129</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="13">
@@ -1937,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:6">
       <c r="A15" s="12" t="s">
@@ -1955,12 +1969,12 @@
       <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="30">
         <v>132.5</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="13">
@@ -1973,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:6">
       <c r="A17" s="12" t="s">
@@ -1991,12 +2005,12 @@
       <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="32">
         <v>204</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="13">
@@ -2009,14 +2023,14 @@
         <v>0</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="2:4">
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="16">
         <f>SUM(F3:F18)</f>
         <v>1662.04</v>
       </c>
@@ -2046,12 +2060,12 @@
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="30">
         <v>1577</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="13">
@@ -2064,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:6">
       <c r="A24" s="12" t="s">
@@ -2082,12 +2096,12 @@
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="30">
         <v>220</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="13">
@@ -2100,325 +2114,325 @@
         <v>0</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" ht="32" customHeight="1" spans="1:7">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="21">
-        <v>1</v>
-      </c>
-      <c r="C26" s="21">
+      <c r="B26" s="18">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18">
         <f>520+590+520+650+520+460+720+590</f>
         <v>4570</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="18">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="33">
         <v>4378</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="21">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21">
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
         <v>-192</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="18">
         <v>0</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="23"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="18">
         <v>8</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="18">
         <v>230</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="18">
         <v>0</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="37">
         <v>2480</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="18">
         <v>15</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="18">
         <v>35</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="18">
         <v>0</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="21">
-        <v>1</v>
-      </c>
-      <c r="C30" s="21">
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18">
         <v>365</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="18">
         <v>0</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="18">
         <v>91</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="18">
         <v>12</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="18">
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="38">
         <v>1034</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21">
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
+      <c r="C32" s="18">
         <v>-30</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="18">
         <v>0</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="30"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="21">
-        <v>1</v>
-      </c>
-      <c r="C33" s="21">
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18">
         <f>575+595+645+595</f>
         <v>2410</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="18">
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="37">
         <v>2674</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="18">
         <v>6</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="18">
         <v>44</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="18">
         <v>0</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="31"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="21">
-        <v>1</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="B35" s="18">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18">
         <v>8</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="18">
         <v>0</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="31"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="39"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="32">
-        <v>1</v>
-      </c>
-      <c r="C36" s="21">
+      <c r="B36" s="22">
+        <v>1</v>
+      </c>
+      <c r="C36" s="18">
         <v>473</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="18">
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="37">
         <v>481</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="32">
-        <v>1</v>
-      </c>
-      <c r="C37" s="21">
+      <c r="B37" s="22">
+        <v>1</v>
+      </c>
+      <c r="C37" s="18">
         <v>8</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="18">
         <v>0</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="31"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="22">
         <v>6</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="18">
         <v>175</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="18">
         <v>0</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="37">
         <v>1717</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="32">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21">
+      <c r="B39" s="22">
+        <v>1</v>
+      </c>
+      <c r="C39" s="18">
         <v>380</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="18">
         <v>0</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="27"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="37"/>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="32">
-        <v>1</v>
-      </c>
-      <c r="C40" s="21">
+      <c r="B40" s="22">
+        <v>1</v>
+      </c>
+      <c r="C40" s="18">
         <v>247</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="18">
         <v>0</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="27"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="32">
-        <v>1</v>
-      </c>
-      <c r="C41" s="21">
+      <c r="B41" s="22">
+        <v>1</v>
+      </c>
+      <c r="C41" s="18">
         <v>40</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="18">
         <v>0</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="27"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="37"/>
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="3:4">
       <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="16">
         <f>SUM(F22:F41)</f>
         <v>14561</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1" spans="3:4">
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="24">
         <f>SUM(D19,D42)</f>
         <v>16223.04</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="2:4">
-      <c r="B44" s="33"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="37"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:4">
       <c r="A45" s="1" t="s">
@@ -2435,16 +2449,16 @@
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="39">
+      <c r="B46" s="29">
         <v>14</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="29">
         <v>46</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="29">
         <f t="shared" ref="D46:D55" si="0">B46*C46</f>
         <v>644</v>
       </c>
@@ -2457,16 +2471,16 @@
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="39">
-        <v>1</v>
-      </c>
-      <c r="C47" s="39">
+      <c r="B47" s="29">
+        <v>1</v>
+      </c>
+      <c r="C47" s="29">
         <v>58</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="29">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -2474,16 +2488,16 @@
       <c r="F47" s="42"/>
     </row>
     <row r="48" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A48" t="s">
+      <c r="A48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="29">
         <v>30</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="29">
         <v>20</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="29">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
@@ -2496,16 +2510,16 @@
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="B49" s="29">
+        <v>1</v>
+      </c>
+      <c r="C49" s="29">
         <v>105</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="29">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -2516,17 +2530,17 @@
       <c r="A50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="29">
         <v>3</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="29">
         <v>230</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="29">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F50" s="41">
@@ -2535,102 +2549,213 @@
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="39">
-        <v>1</v>
-      </c>
-      <c r="C51" s="39">
+      <c r="B51" s="29">
+        <v>1</v>
+      </c>
+      <c r="C51" s="29">
         <v>105</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="29">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E51" s="44"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="42"/>
     </row>
     <row r="52" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A52" t="s">
+      <c r="A52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5">
+      <c r="B52" s="29">
+        <v>1</v>
+      </c>
+      <c r="C52" s="29">
         <f>488</f>
         <v>488</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="29">
         <f t="shared" si="0"/>
         <v>488</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="46" t="s">
+      <c r="E52" s="44" t="s">
         <v>40</v>
       </c>
+      <c r="F52" s="41">
+        <f>488+10</f>
+        <v>498</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="B53" s="29">
+        <v>1</v>
+      </c>
+      <c r="C53" s="29">
         <v>58</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="29">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E53" s="45"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="42"/>
-      <c r="G53" s="46"/>
+      <c r="G53" s="45"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54" s="5">
+      <c r="A54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="29">
+        <v>1</v>
+      </c>
+      <c r="C54" s="29">
         <v>559.48</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="29">
         <f t="shared" si="0"/>
         <v>559.48</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="41"/>
+      <c r="E54" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="41">
+        <v>450.42</v>
+      </c>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55" s="5">
+      <c r="B55" s="29">
+        <v>1</v>
+      </c>
+      <c r="C55" s="29">
         <v>65</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="29">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E55" s="45"/>
+      <c r="E55" s="44"/>
       <c r="F55" s="42"/>
     </row>
     <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="5">
+        <v>50</v>
+      </c>
+      <c r="C57" s="5">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <f>B57*C57</f>
+        <v>1000</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="46"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5">
+        <v>105</v>
+      </c>
+      <c r="D58">
+        <f>B58*C58</f>
+        <v>105</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="46"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="5">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5">
+        <v>46</v>
+      </c>
+      <c r="D59">
+        <f>B59*C59</f>
+        <v>276</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="46"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <f>B60*C60</f>
+        <v>58</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="46"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4</v>
+      </c>
+      <c r="C61" s="5">
+        <v>230</v>
+      </c>
+      <c r="D61">
+        <f>B61*C61</f>
+        <v>920</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="46"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>125</v>
+      </c>
+      <c r="D62">
+        <f>B62*C62</f>
+        <v>125</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="46"/>
+    </row>
     <row r="63" ht="14.25" customHeight="1"/>
     <row r="64" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
@@ -3580,7 +3705,7 @@
     <row r="1009" ht="14.25" customHeight="1"/>
     <row r="1010" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="48">
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="E11:E12"/>
@@ -3600,6 +3725,9 @@
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="E52:E53"/>
     <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F5:F10"/>
     <mergeCell ref="F11:F12"/>
@@ -3619,6 +3747,9 @@
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G33:G35"/>
     <mergeCell ref="G36:G37"/>
@@ -3639,17 +3770,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="35.2105263157895" customWidth="1"/>
-    <col min="2" max="2" width="5.21052631578947" customWidth="1"/>
-    <col min="3" max="3" width="13.0877192982456" customWidth="1"/>
+    <col min="1" max="1" width="35.2109375" customWidth="1"/>
+    <col min="2" max="2" width="5.2109375" customWidth="1"/>
+    <col min="3" max="3" width="13.0859375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3697,7 +3828,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -3757,7 +3888,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
@@ -3787,7 +3918,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -3833,7 +3964,7 @@
     <row r="14" spans="2:4">
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="8">
         <f>SUM(D3:D13)</f>
@@ -3853,7 +3984,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -3883,7 +4014,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -3913,7 +4044,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -3928,7 +4059,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -3943,7 +4074,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -3973,7 +4104,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="5">
         <v>50</v>
@@ -4003,7 +4134,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5">
         <v>5</v>
@@ -4034,7 +4165,7 @@
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="C29" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D29" s="9">
         <f>SUM(D17:D28)</f>
@@ -4043,12 +4174,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -4063,7 +4194,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
@@ -4078,7 +4209,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -4093,7 +4224,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -4108,7 +4239,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -4123,7 +4254,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -4138,7 +4269,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -4153,7 +4284,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -4168,7 +4299,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -4183,7 +4314,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -4198,7 +4329,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -4213,7 +4344,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -4228,7 +4359,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -4243,7 +4374,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -4258,7 +4389,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -4288,7 +4419,7 @@
     </row>
     <row r="47" spans="3:4">
       <c r="C47" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D47" s="9">
         <f>SUM(D31:D46)</f>
@@ -4297,7 +4428,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -4312,7 +4443,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -4327,7 +4458,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -4342,7 +4473,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -4357,7 +4488,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -4387,7 +4518,7 @@
     </row>
     <row r="54" spans="3:4">
       <c r="C54" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D54" s="9">
         <f>SUM(D48:D53)</f>
@@ -4396,7 +4527,7 @@
     </row>
     <row r="55" spans="3:4">
       <c r="C55" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D55" s="11">
         <f>D54+D47+D29+D14</f>
@@ -4417,190 +4548,190 @@
   <sheetPr/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="26.7894736842105" customWidth="1"/>
+    <col min="1" max="1" width="26.7890625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Supplies.xlsx
+++ b/Supplies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13760"/>
+    <workbookView windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Estimate (Inspired)" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
   <si>
     <t>Quantity</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Silver-White 30mL Bottle x10</t>
+  </si>
+  <si>
+    <t>Gypsy Water</t>
+  </si>
+  <si>
+    <t>125mL FO - Parfum Aromatics Co.</t>
+  </si>
+  <si>
+    <t>Dear Polly</t>
   </si>
   <si>
     <t>Qty</t>
@@ -363,14 +372,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="[$₱-464]#,##0.00_);[Red]\([$₱-464]#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="[$₱-3409]#,##0.00_);[Red]\([$₱-3409]#,##0.00\)"/>
-    <numFmt numFmtId="183" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="[$₱-3409]#,##0.00_);[Red]\([$₱-3409]#,##0.00\)"/>
+    <numFmt numFmtId="182" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -561,7 +570,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,13 +591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFBE5D5"/>
         <bgColor rgb="FFFBE5D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +974,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,16 +998,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1001,89 +1016,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1126,13 +1141,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,31 +1165,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1174,55 +1219,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1705,20 +1732,20 @@
   <sheetPr/>
   <dimension ref="A1:G1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65:E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="38.4296875" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.6015625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.4453125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7734375" customWidth="1"/>
-    <col min="7" max="7" width="16.8125" customWidth="1"/>
-    <col min="8" max="26" width="8.859375" customWidth="1"/>
+    <col min="1" max="1" width="38.4298245614035" customWidth="1"/>
+    <col min="2" max="2" width="8.8421052631579" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.6052631578947" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.4473684210526" customWidth="1"/>
+    <col min="5" max="5" width="24.7105263157895" customWidth="1"/>
+    <col min="6" max="6" width="17.7719298245614" customWidth="1"/>
+    <col min="7" max="7" width="16.8157894736842" customWidth="1"/>
+    <col min="8" max="26" width="8.85964912280702" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="2:6">
@@ -1761,12 +1788,12 @@
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="14">
         <v>157.89</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="13">
@@ -1779,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="30"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:6">
       <c r="A5" s="12" t="s">
@@ -1797,7 +1824,7 @@
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="14">
         <v>330.34</v>
       </c>
     </row>
@@ -1815,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="30"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:6">
       <c r="A7" s="12" t="s">
@@ -1831,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="30"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:6">
       <c r="A8" s="12" t="s">
@@ -1847,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="30"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:6">
       <c r="A9" s="12" t="s">
@@ -1863,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="30"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="13">
@@ -1879,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:6">
       <c r="A11" s="12" t="s">
@@ -1894,15 +1921,15 @@
       <c r="D11" s="13">
         <v>0</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="14">
         <v>708.31</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="13">
@@ -1914,8 +1941,8 @@
       <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:6">
       <c r="A13" s="12" t="s">
@@ -1933,12 +1960,12 @@
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="14">
         <v>129</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="13">
@@ -1951,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:6">
       <c r="A15" s="12" t="s">
@@ -1969,12 +1996,12 @@
       <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="14">
         <v>132.5</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="13">
@@ -1987,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="30"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:6">
       <c r="A17" s="12" t="s">
@@ -2005,12 +2032,12 @@
       <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="18">
         <v>204</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="13">
@@ -2023,14 +2050,14 @@
         <v>0</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="2:4">
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="19">
         <f>SUM(F3:F18)</f>
         <v>1662.04</v>
       </c>
@@ -2060,12 +2087,12 @@
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="14">
         <v>1577</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="13">
@@ -2078,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="30"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:6">
       <c r="A24" s="12" t="s">
@@ -2096,12 +2123,12 @@
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="14">
         <v>220</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="13">
@@ -2114,325 +2141,325 @@
         <v>0</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="30"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" ht="32" customHeight="1" spans="1:7">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="18">
-        <v>1</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="B26" s="21">
+        <v>1</v>
+      </c>
+      <c r="C26" s="21">
         <f>520+590+520+650+520+460+720+590</f>
         <v>4570</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="21">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="22">
         <v>4378</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="18">
-        <v>1</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="21">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21">
         <v>-192</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="21">
         <v>0</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="34"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="21">
         <v>8</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="21">
         <v>230</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="21">
         <v>0</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="27">
         <v>2480</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="21">
         <v>15</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="21">
         <v>35</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="21">
         <v>0</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="18">
-        <v>1</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="B30" s="21">
+        <v>1</v>
+      </c>
+      <c r="C30" s="21">
         <v>365</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="21">
         <v>0</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="21">
         <v>91</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="21">
         <v>12</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="21">
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="30">
         <v>1034</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="18">
-        <v>1</v>
-      </c>
-      <c r="C32" s="18">
+      <c r="B32" s="21">
+        <v>1</v>
+      </c>
+      <c r="C32" s="21">
         <v>-30</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="21">
         <v>0</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="38"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="18">
-        <v>1</v>
-      </c>
-      <c r="C33" s="18">
+      <c r="B33" s="21">
+        <v>1</v>
+      </c>
+      <c r="C33" s="21">
         <f>575+595+645+595</f>
         <v>2410</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="21">
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="27">
         <v>2674</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="21">
         <v>6</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="21">
         <v>44</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="21">
         <v>0</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="39"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="18">
-        <v>1</v>
-      </c>
-      <c r="C35" s="18">
+      <c r="B35" s="21">
+        <v>1</v>
+      </c>
+      <c r="C35" s="21">
         <v>8</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="21">
         <v>0</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="39"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="22">
-        <v>1</v>
-      </c>
-      <c r="C36" s="18">
+      <c r="B36" s="32">
+        <v>1</v>
+      </c>
+      <c r="C36" s="21">
         <v>473</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="21">
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="27">
         <v>481</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="22">
-        <v>1</v>
-      </c>
-      <c r="C37" s="18">
+      <c r="B37" s="32">
+        <v>1</v>
+      </c>
+      <c r="C37" s="21">
         <v>8</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="21">
         <v>0</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="39"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="32">
         <v>6</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="21">
         <v>175</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="21">
         <v>0</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="27">
         <v>1717</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="22">
-        <v>1</v>
-      </c>
-      <c r="C39" s="18">
+      <c r="B39" s="32">
+        <v>1</v>
+      </c>
+      <c r="C39" s="21">
         <v>380</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="21">
         <v>0</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="37"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="22">
-        <v>1</v>
-      </c>
-      <c r="C40" s="18">
+      <c r="B40" s="32">
+        <v>1</v>
+      </c>
+      <c r="C40" s="21">
         <v>247</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="21">
         <v>0</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="37"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="22">
-        <v>1</v>
-      </c>
-      <c r="C41" s="18">
+      <c r="B41" s="32">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21">
         <v>40</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="21">
         <v>0</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="37"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="3:4">
       <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="19">
         <f>SUM(F22:F41)</f>
         <v>14561</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1" spans="3:4">
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="35">
         <f>SUM(D19,D42)</f>
         <v>16223.04</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="2:4">
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:4">
       <c r="A45" s="1" t="s">
@@ -2449,16 +2476,16 @@
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="39">
         <v>14</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="39">
         <v>46</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="39">
         <f t="shared" ref="D46:D55" si="0">B46*C46</f>
         <v>644</v>
       </c>
@@ -2471,16 +2498,16 @@
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="29">
-        <v>1</v>
-      </c>
-      <c r="C47" s="29">
+      <c r="B47" s="39">
+        <v>1</v>
+      </c>
+      <c r="C47" s="39">
         <v>58</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="39">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
@@ -2491,17 +2518,17 @@
       <c r="A48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="39">
         <v>30</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="39">
         <v>20</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="39">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="41">
@@ -2510,33 +2537,33 @@
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="29">
-        <v>1</v>
-      </c>
-      <c r="C49" s="29">
+      <c r="B49" s="39">
+        <v>1</v>
+      </c>
+      <c r="C49" s="39">
         <v>105</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="39">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E49" s="43"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="42"/>
     </row>
     <row r="50" ht="14.25" customHeight="1" spans="1:6">
       <c r="A50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="39">
         <v>3</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="39">
         <v>230</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="39">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
@@ -2549,16 +2576,16 @@
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="29">
-        <v>1</v>
-      </c>
-      <c r="C51" s="29">
+      <c r="B51" s="39">
+        <v>1</v>
+      </c>
+      <c r="C51" s="39">
         <v>105</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="39">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -2569,61 +2596,61 @@
       <c r="A52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="29">
-        <v>1</v>
-      </c>
-      <c r="C52" s="29">
+      <c r="B52" s="39">
+        <v>1</v>
+      </c>
+      <c r="C52" s="39">
         <f>488</f>
         <v>488</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="39">
         <f t="shared" si="0"/>
         <v>488</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="43" t="s">
         <v>40</v>
       </c>
       <c r="F52" s="41">
         <f>488+10</f>
         <v>498</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="29">
-        <v>1</v>
-      </c>
-      <c r="C53" s="29">
+      <c r="B53" s="39">
+        <v>1</v>
+      </c>
+      <c r="C53" s="39">
         <v>58</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="39">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E53" s="44"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="42"/>
-      <c r="G53" s="45"/>
+      <c r="G53" s="44"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:6">
       <c r="A54" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="29">
-        <v>1</v>
-      </c>
-      <c r="C54" s="29">
+      <c r="B54" s="39">
+        <v>1</v>
+      </c>
+      <c r="C54" s="39">
         <v>559.48</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="39">
         <f t="shared" si="0"/>
         <v>559.48</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="41">
@@ -2631,135 +2658,220 @@
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="29">
-        <v>1</v>
-      </c>
-      <c r="C55" s="29">
+      <c r="B55" s="39">
+        <v>1</v>
+      </c>
+      <c r="C55" s="39">
         <v>65</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="39">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E55" s="44"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="42"/>
     </row>
     <row r="56" ht="14.25" customHeight="1"/>
     <row r="57" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A57" t="s">
+      <c r="A57" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="46">
         <v>50</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="46">
         <v>20</v>
       </c>
-      <c r="D57">
-        <f>B57*C57</f>
+      <c r="D57" s="45">
+        <f t="shared" ref="D57:D62" si="1">B57*C57</f>
         <v>1000</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="46"/>
+      <c r="F57" s="47">
+        <f>996+105+22</f>
+        <v>1123</v>
+      </c>
     </row>
     <row r="58" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="B58" s="46">
+        <v>1</v>
+      </c>
+      <c r="C58" s="46">
         <v>105</v>
       </c>
-      <c r="D58">
-        <f>B58*C58</f>
+      <c r="D58" s="45">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="46"/>
+      <c r="F58" s="47"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A59" t="s">
+      <c r="A59" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="5">
-        <v>6</v>
-      </c>
-      <c r="C59" s="5">
+      <c r="B59" s="46">
+        <v>2</v>
+      </c>
+      <c r="C59" s="46">
         <v>46</v>
       </c>
-      <c r="D59">
-        <f>B59*C59</f>
-        <v>276</v>
+      <c r="D59" s="45">
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="46"/>
+      <c r="F59" s="47">
+        <f>92+58+3</f>
+        <v>153</v>
+      </c>
     </row>
     <row r="60" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5">
+      <c r="B60" s="46">
+        <v>1</v>
+      </c>
+      <c r="C60" s="46">
         <v>58</v>
       </c>
-      <c r="D60">
-        <f>B60*C60</f>
+      <c r="D60" s="45">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="46"/>
+      <c r="F60" s="47"/>
     </row>
     <row r="61" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A61" t="s">
+      <c r="A61" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="5">
-        <v>4</v>
-      </c>
-      <c r="C61" s="5">
+      <c r="B61" s="46">
+        <v>3</v>
+      </c>
+      <c r="C61" s="46">
         <v>230</v>
       </c>
-      <c r="D61">
-        <f>B61*C61</f>
-        <v>920</v>
+      <c r="D61" s="45">
+        <f t="shared" si="1"/>
+        <v>690</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="46"/>
+      <c r="F61" s="47">
+        <f>690+45+15</f>
+        <v>750</v>
+      </c>
     </row>
     <row r="62" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62" s="5">
+      <c r="B62" s="46">
+        <v>1</v>
+      </c>
+      <c r="C62" s="46">
         <v>125</v>
       </c>
-      <c r="D62">
-        <f>B62*C62</f>
+      <c r="D62" s="45">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="46"/>
-    </row>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
+      <c r="F62" s="47"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5">
+        <v>520</v>
+      </c>
+      <c r="D63" s="49">
+        <f>B63*C63</f>
+        <v>520</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5">
+        <v>58</v>
+      </c>
+      <c r="D64" s="49">
+        <f>B64*C64</f>
+        <v>58</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="50"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5">
+        <v>813</v>
+      </c>
+      <c r="D65" s="49">
+        <f>B65*C65</f>
+        <v>813</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5">
+        <v>58</v>
+      </c>
+      <c r="D66" s="49">
+        <f>B66*C66</f>
+        <v>58</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="50"/>
+    </row>
     <row r="67" ht="14.25" customHeight="1"/>
     <row r="68" ht="14.25" customHeight="1"/>
     <row r="69" ht="14.25" customHeight="1"/>
@@ -3705,7 +3817,7 @@
     <row r="1009" ht="14.25" customHeight="1"/>
     <row r="1010" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="54">
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="E11:E12"/>
@@ -3728,6 +3840,8 @@
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F5:F10"/>
     <mergeCell ref="F11:F12"/>
@@ -3750,10 +3864,14 @@
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="F59:F60"/>
     <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G33:G35"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -3770,17 +3888,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="35.2109375" customWidth="1"/>
-    <col min="2" max="2" width="5.2109375" customWidth="1"/>
-    <col min="3" max="3" width="13.0859375" customWidth="1"/>
+    <col min="1" max="1" width="35.2105263157895" customWidth="1"/>
+    <col min="2" max="2" width="5.21052631578947" customWidth="1"/>
+    <col min="3" max="3" width="13.0877192982456" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3828,7 +3946,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
@@ -3888,7 +4006,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
@@ -3918,7 +4036,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -3964,7 +4082,7 @@
     <row r="14" spans="2:4">
       <c r="B14" s="3"/>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8">
         <f>SUM(D3:D13)</f>
@@ -3984,7 +4102,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -4014,7 +4132,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -4044,7 +4162,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -4059,7 +4177,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -4074,7 +4192,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -4104,7 +4222,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B25" s="5">
         <v>50</v>
@@ -4134,7 +4252,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B27" s="5">
         <v>5</v>
@@ -4165,7 +4283,7 @@
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="C29" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D29" s="9">
         <f>SUM(D17:D28)</f>
@@ -4174,12 +4292,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -4194,7 +4312,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
@@ -4209,7 +4327,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -4224,7 +4342,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -4239,7 +4357,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -4254,7 +4372,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -4269,7 +4387,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -4284,7 +4402,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -4299,7 +4417,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -4314,7 +4432,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -4329,7 +4447,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -4344,7 +4462,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -4359,7 +4477,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -4374,7 +4492,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -4389,7 +4507,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -4419,7 +4537,7 @@
     </row>
     <row r="47" spans="3:4">
       <c r="C47" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D47" s="9">
         <f>SUM(D31:D46)</f>
@@ -4428,7 +4546,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -4443,7 +4561,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -4458,7 +4576,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -4473,7 +4591,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -4488,7 +4606,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -4518,7 +4636,7 @@
     </row>
     <row r="54" spans="3:4">
       <c r="C54" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D54" s="9">
         <f>SUM(D48:D53)</f>
@@ -4527,7 +4645,7 @@
     </row>
     <row r="55" spans="3:4">
       <c r="C55" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D55" s="11">
         <f>D54+D47+D29+D14</f>
@@ -4552,186 +4670,186 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="26.7890625" customWidth="1"/>
+    <col min="1" max="1" width="26.7894736842105" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Supplies.xlsx
+++ b/Supplies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8952"/>
+    <workbookView windowWidth="23040" windowHeight="8952" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Estimate (Inspired)" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="124">
   <si>
     <t>Quantity</t>
   </si>
@@ -175,100 +175,136 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Glass Beaker 50mL</t>
-  </si>
-  <si>
-    <t>Plastic Pipettes 3mL 5pcs</t>
-  </si>
-  <si>
     <t>Perfume Testing Strip x100</t>
   </si>
   <si>
+    <t>Amber Glass Bottles - 250mL</t>
+  </si>
+  <si>
+    <t>Amber Glass Bottles - 30mL</t>
+  </si>
+  <si>
     <t>Subtotal:</t>
   </si>
   <si>
-    <t>Shrink Wrap 12x17 x100</t>
-  </si>
-  <si>
-    <t>Customized Product Sticker</t>
-  </si>
-  <si>
-    <t>4L Perfumer's Alcohol</t>
-  </si>
-  <si>
-    <t>500mL DPG</t>
-  </si>
-  <si>
-    <t>120mL Liquid Fixative</t>
-  </si>
-  <si>
-    <t>Perfume Pouch White</t>
-  </si>
-  <si>
     <t>Frosted 50mL Bottle Matte Gold Cap x10</t>
   </si>
   <si>
-    <t>Essential OIls (30mL)</t>
-  </si>
-  <si>
-    <t>Bergamot</t>
-  </si>
-  <si>
-    <t>Citronella</t>
-  </si>
-  <si>
-    <t>Clary Sage</t>
-  </si>
-  <si>
-    <t>Frankincense</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>Myrrh</t>
+    <t>Pack_now</t>
+  </si>
+  <si>
+    <t>Propylene Glycol - 1kg</t>
+  </si>
+  <si>
+    <t>Medium Thick Wall Perfume Box</t>
+  </si>
+  <si>
+    <t>Essential Oils (30mL)</t>
+  </si>
+  <si>
+    <t>Carrot Seed</t>
   </si>
   <si>
     <t>Neroli</t>
   </si>
   <si>
-    <t>Patchouli</t>
-  </si>
-  <si>
-    <t>Pine Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rose </t>
-  </si>
-  <si>
-    <t>Rosemary</t>
-  </si>
-  <si>
-    <t>Sandalwood</t>
-  </si>
-  <si>
-    <t>Tea Tree</t>
-  </si>
-  <si>
-    <t>Vanilla</t>
-  </si>
-  <si>
-    <t>Vetiver</t>
-  </si>
-  <si>
-    <t>Cinnamon</t>
-  </si>
-  <si>
     <t>Cypress</t>
   </si>
   <si>
-    <t>Geranium</t>
-  </si>
-  <si>
-    <t>Lavender</t>
-  </si>
-  <si>
-    <t>Ylang-Ylang</t>
+    <t>fir needle</t>
+  </si>
+  <si>
+    <t>magnolia</t>
+  </si>
+  <si>
+    <t>sandalwood</t>
+  </si>
+  <si>
+    <t>vanilla</t>
+  </si>
+  <si>
+    <t>geranium</t>
+  </si>
+  <si>
+    <t>pine</t>
+  </si>
+  <si>
+    <t>rosewood</t>
+  </si>
+  <si>
+    <t>jasmine</t>
+  </si>
+  <si>
+    <t>rosemary</t>
+  </si>
+  <si>
+    <t>wintergreen</t>
+  </si>
+  <si>
+    <t>verbena</t>
+  </si>
+  <si>
+    <t>tarragon</t>
+  </si>
+  <si>
+    <t>fennel</t>
+  </si>
+  <si>
+    <t>gardenia</t>
+  </si>
+  <si>
+    <t>juniper berry</t>
+  </si>
+  <si>
+    <t>patchouli</t>
+  </si>
+  <si>
+    <t>copaiba</t>
+  </si>
+  <si>
+    <t>tea tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rose </t>
+  </si>
+  <si>
+    <t>ylang-ylang</t>
+  </si>
+  <si>
+    <t>basil</t>
+  </si>
+  <si>
+    <t>bergamot</t>
+  </si>
+  <si>
+    <t>ginger</t>
+  </si>
+  <si>
+    <t>cedarwood</t>
+  </si>
+  <si>
+    <t>myrrh</t>
+  </si>
+  <si>
+    <t>lavender</t>
+  </si>
+  <si>
+    <t>eucalyptus</t>
+  </si>
+  <si>
+    <t>cinnamon</t>
+  </si>
+  <si>
+    <t>turmeric</t>
+  </si>
+  <si>
+    <t>spearmint</t>
+  </si>
+  <si>
+    <t>vetiver</t>
+  </si>
+  <si>
+    <t>eco love philippines</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL: </t>
@@ -381,7 +417,7 @@
     <numFmt numFmtId="181" formatCode="[$₱-3409]#,##0.00_);[Red]\([$₱-3409]#,##0.00\)"/>
     <numFmt numFmtId="182" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +428,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -570,12 +613,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -586,12 +641,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,55 +1017,52 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,74 +1077,77 @@
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1111,8 +1160,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,103 +1169,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,26 +1295,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1732,7 +1790,7 @@
   <sheetPr/>
   <dimension ref="A1:G1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A35" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E65" sqref="E65:E66"/>
     </sheetView>
   </sheetViews>
@@ -1749,13 +1807,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="2:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1766,700 +1824,700 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
         <v>137</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="18">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="19">
         <v>157.89</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
         <v>58</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
         <v>56.89</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="18">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="19">
         <v>330.34</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
         <v>66.55</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="18">
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
         <v>24.85</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
         <v>84.63</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="18">
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
         <v>97.42</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="18">
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
         <v>0</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="18">
         <v>0</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
         <v>708.31</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="19">
         <v>708.31</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
         <v>0</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="18">
         <v>0</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
         <v>118</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="18">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="19">
         <v>129</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="13">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
         <v>8</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="18">
         <v>0</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="18">
         <v>3</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="18">
         <v>25</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="18">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="19">
         <v>132.5</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="13">
-        <v>1</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
         <v>65</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="18">
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18">
         <v>139</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="18">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="23">
         <v>204</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="13">
-        <v>1</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
         <v>65</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="18">
         <v>0</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="2:4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="24">
         <f>SUM(F3:F18)</f>
         <v>1662.04</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="18">
         <v>78</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="18">
         <v>19</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="18">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="19">
         <v>1577</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="13">
-        <v>1</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18">
         <v>95</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="18">
         <v>0</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="18">
         <v>2</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="18">
         <v>0</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="18">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="19">
         <v>220</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="13">
-        <v>1</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25" s="18">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
         <v>0</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="18">
         <v>0</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" ht="32" customHeight="1" spans="1:7">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="21">
-        <v>1</v>
-      </c>
-      <c r="C26" s="21">
+      <c r="B26" s="26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="26">
         <f>520+590+520+650+520+460+720+590</f>
         <v>4570</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="26">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="27">
         <v>4378</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="21">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21">
+      <c r="B27" s="26">
+        <v>1</v>
+      </c>
+      <c r="C27" s="26">
         <v>-192</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="26">
         <v>0</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="23"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="28"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="26">
         <v>8</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="26">
         <v>230</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="26">
         <v>0</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="32">
         <v>2480</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="26">
         <v>15</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="26">
         <v>35</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="26">
         <v>0</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="21">
-        <v>1</v>
-      </c>
-      <c r="C30" s="21">
+      <c r="B30" s="26">
+        <v>1</v>
+      </c>
+      <c r="C30" s="26">
         <v>365</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="26">
         <v>0</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="26">
         <v>91</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="26">
         <v>12</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="26">
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="35">
         <v>1034</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21">
+      <c r="B32" s="26">
+        <v>1</v>
+      </c>
+      <c r="C32" s="26">
         <v>-30</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="26">
         <v>0</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="30"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="21">
-        <v>1</v>
-      </c>
-      <c r="C33" s="21">
+      <c r="B33" s="26">
+        <v>1</v>
+      </c>
+      <c r="C33" s="26">
         <f>575+595+645+595</f>
         <v>2410</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="26">
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="32">
         <v>2674</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="26">
         <v>6</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="26">
         <v>44</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="26">
         <v>0</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="21">
-        <v>1</v>
-      </c>
-      <c r="C35" s="21">
+      <c r="B35" s="26">
+        <v>1</v>
+      </c>
+      <c r="C35" s="26">
         <v>8</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="26">
         <v>0</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="32">
-        <v>1</v>
-      </c>
-      <c r="C36" s="21">
+      <c r="B36" s="37">
+        <v>1</v>
+      </c>
+      <c r="C36" s="26">
         <v>473</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="26">
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="32">
         <v>481</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="32">
-        <v>1</v>
-      </c>
-      <c r="C37" s="21">
+      <c r="B37" s="37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="26">
         <v>8</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="26">
         <v>0</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="37">
         <v>6</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="26">
         <v>175</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="26">
         <v>0</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="32">
         <v>1717</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="32">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21">
+      <c r="B39" s="37">
+        <v>1</v>
+      </c>
+      <c r="C39" s="26">
         <v>380</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="26">
         <v>0</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="27"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="32">
-        <v>1</v>
-      </c>
-      <c r="C40" s="21">
+      <c r="B40" s="37">
+        <v>1</v>
+      </c>
+      <c r="C40" s="26">
         <v>247</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="26">
         <v>0</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="27"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="32">
-        <v>1</v>
-      </c>
-      <c r="C41" s="21">
+      <c r="B41" s="37">
+        <v>1</v>
+      </c>
+      <c r="C41" s="26">
         <v>40</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="26">
         <v>0</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="27"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="32"/>
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="3:4">
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="24">
         <f>SUM(F22:F41)</f>
         <v>14561</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1" spans="3:4">
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="40">
         <f>SUM(D19,D42)</f>
         <v>16223.04</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="2:4">
-      <c r="B44" s="33"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:4">
       <c r="A45" s="1" t="s">
@@ -2476,321 +2534,321 @@
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="39">
+      <c r="B46" s="44">
         <v>14</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="44">
         <v>46</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="44">
         <f t="shared" ref="D46:D55" si="0">B46*C46</f>
         <v>644</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="46">
         <f>644+8+13</f>
         <v>665</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="39">
-        <v>1</v>
-      </c>
-      <c r="C47" s="39">
+      <c r="B47" s="44">
+        <v>1</v>
+      </c>
+      <c r="C47" s="44">
         <v>58</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="44">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="42"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="47"/>
     </row>
     <row r="48" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="44">
         <v>30</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="44">
         <v>20</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="44">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="41">
+      <c r="F48" s="46">
         <f>600+58+13</f>
         <v>671</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="39">
-        <v>1</v>
-      </c>
-      <c r="C49" s="39">
+      <c r="B49" s="44">
+        <v>1</v>
+      </c>
+      <c r="C49" s="44">
         <v>105</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="44">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="42"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="47"/>
     </row>
     <row r="50" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="44">
         <v>3</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="44">
         <v>230</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="44">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="41">
+      <c r="F50" s="46">
         <f>573+0</f>
         <v>573</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="39">
-        <v>1</v>
-      </c>
-      <c r="C51" s="39">
+      <c r="B51" s="44">
+        <v>1</v>
+      </c>
+      <c r="C51" s="44">
         <v>105</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="44">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="42"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="47"/>
     </row>
     <row r="52" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="39">
-        <v>1</v>
-      </c>
-      <c r="C52" s="39">
+      <c r="B52" s="44">
+        <v>1</v>
+      </c>
+      <c r="C52" s="44">
         <f>488</f>
         <v>488</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="44">
         <f t="shared" si="0"/>
         <v>488</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F52" s="46">
         <f>488+10</f>
         <v>498</v>
       </c>
-      <c r="G52" s="44" t="s">
+      <c r="G52" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="39">
-        <v>1</v>
-      </c>
-      <c r="C53" s="39">
+      <c r="B53" s="44">
+        <v>1</v>
+      </c>
+      <c r="C53" s="44">
         <v>58</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="44">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="44"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="39">
-        <v>1</v>
-      </c>
-      <c r="C54" s="39">
+      <c r="B54" s="44">
+        <v>1</v>
+      </c>
+      <c r="C54" s="44">
         <v>559.48</v>
       </c>
-      <c r="D54" s="39">
+      <c r="D54" s="44">
         <f t="shared" si="0"/>
         <v>559.48</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="41">
+      <c r="F54" s="46">
         <v>450.42</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="39">
-        <v>1</v>
-      </c>
-      <c r="C55" s="39">
+      <c r="B55" s="44">
+        <v>1</v>
+      </c>
+      <c r="C55" s="44">
         <v>65</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="44">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="42"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="47"/>
     </row>
     <row r="56" ht="14.25" customHeight="1"/>
     <row r="57" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="46">
+      <c r="B57" s="50">
         <v>50</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C57" s="50">
         <v>20</v>
       </c>
-      <c r="D57" s="45">
-        <f t="shared" ref="D57:D62" si="1">B57*C57</f>
+      <c r="D57" s="49">
+        <f t="shared" ref="D57:D66" si="1">B57*C57</f>
         <v>1000</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="47">
+      <c r="F57" s="51">
         <f>996+105+22</f>
         <v>1123</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="46">
-        <v>1</v>
-      </c>
-      <c r="C58" s="46">
+      <c r="B58" s="50">
+        <v>1</v>
+      </c>
+      <c r="C58" s="50">
         <v>105</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="49">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="47"/>
+      <c r="F58" s="51"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="46">
+      <c r="B59" s="50">
         <v>2</v>
       </c>
-      <c r="C59" s="46">
+      <c r="C59" s="50">
         <v>46</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="49">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="47">
+      <c r="F59" s="51">
         <f>92+58+3</f>
         <v>153</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="46">
-        <v>1</v>
-      </c>
-      <c r="C60" s="46">
+      <c r="B60" s="50">
+        <v>1</v>
+      </c>
+      <c r="C60" s="50">
         <v>58</v>
       </c>
-      <c r="D60" s="45">
+      <c r="D60" s="49">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="47"/>
+      <c r="F60" s="51"/>
     </row>
     <row r="61" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="46">
+      <c r="B61" s="50">
         <v>3</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="50">
         <v>230</v>
       </c>
-      <c r="D61" s="45">
+      <c r="D61" s="49">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="47">
+      <c r="F61" s="51">
         <f>690+45+15</f>
         <v>750</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="46">
-        <v>1</v>
-      </c>
-      <c r="C62" s="46">
+      <c r="B62" s="50">
+        <v>1</v>
+      </c>
+      <c r="C62" s="50">
         <v>125</v>
       </c>
-      <c r="D62" s="45">
+      <c r="D62" s="49">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="47"/>
+      <c r="F62" s="51"/>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:7">
       <c r="A63" t="s">
@@ -2802,15 +2860,15 @@
       <c r="C63" s="5">
         <v>520</v>
       </c>
-      <c r="D63" s="49">
-        <f>B63*C63</f>
+      <c r="D63" s="53">
+        <f t="shared" si="1"/>
         <v>520</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="5"/>
-      <c r="G63" s="50" t="s">
+      <c r="G63" s="36" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2824,13 +2882,13 @@
       <c r="C64" s="5">
         <v>58</v>
       </c>
-      <c r="D64" s="49">
-        <f>B64*C64</f>
+      <c r="D64" s="53">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="50"/>
+      <c r="G64" s="36"/>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:7">
       <c r="A65" t="s">
@@ -2842,15 +2900,15 @@
       <c r="C65" s="5">
         <v>813</v>
       </c>
-      <c r="D65" s="49">
-        <f>B65*C65</f>
+      <c r="D65" s="53">
+        <f t="shared" si="1"/>
         <v>813</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="5"/>
-      <c r="G65" s="50" t="s">
+      <c r="G65" s="36" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2864,13 +2922,13 @@
       <c r="C66" s="5">
         <v>58</v>
       </c>
-      <c r="D66" s="49">
-        <f>B66*C66</f>
+      <c r="D66" s="53">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="50"/>
+      <c r="G66" s="36"/>
     </row>
     <row r="67" ht="14.25" customHeight="1"/>
     <row r="68" ht="14.25" customHeight="1"/>
@@ -3882,18 +3940,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="35.2105263157895" customWidth="1"/>
     <col min="2" max="2" width="5.21052631578947" customWidth="1"/>
     <col min="3" max="3" width="13.0877192982456" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8.8421052631579" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
@@ -3908,715 +3967,741 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>137</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D13" si="0">PRODUCT(B3:C3)</f>
-        <v>137</v>
+        <v>48</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4">
+        <f>PRODUCT(B3:C3)</f>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>58</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>58</v>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>85</v>
+      </c>
+      <c r="D4" s="4">
+        <f>PRODUCT(B4:C4)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
-        <v>49</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>245</v>
+      <c r="C5" s="5">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4">
+        <f>PRODUCT(B5:C5)</f>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>22</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>110</v>
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <f>PRODUCT(B6:C6)</f>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>77</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>58</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>95</v>
+      </c>
+      <c r="D7" s="4">
+        <f>PRODUCT(B7:C7)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="9">
+        <f>SUM(D3:D7)</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>405</v>
+      </c>
+      <c r="D11" s="4">
+        <f>PRODUCT(B11:C11)</f>
+        <v>1215</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>85</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5">
-        <v>109</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
+      <c r="B12" s="5">
+        <v>1</v>
       </c>
       <c r="C12" s="5">
-        <v>118</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>236</v>
+        <v>95</v>
+      </c>
+      <c r="D12" s="4">
+        <f>PRODUCT(B12:C12)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="5">
         <v>1</v>
       </c>
       <c r="C13" s="5">
-        <v>85</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="3"/>
-      <c r="C14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="4">
+        <f>PRODUCT(B13:C13)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4">
+        <f>PRODUCT(B14:C14)</f>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="8">
-        <f>SUM(D3:D13)</f>
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D15" s="11">
+        <f>SUM(D11:D14)</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>79</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" ref="D17:D28" si="1">PRODUCT(B17:C17)</f>
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>295</v>
+      </c>
+      <c r="D17" s="5">
+        <f>C17*B17</f>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>58</v>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>329</v>
+      </c>
+      <c r="D18" s="5">
+        <f>C18*B18</f>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>149</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>149</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>195</v>
+      </c>
+      <c r="D19" s="5">
+        <f>C19*B19</f>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>84</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>84</v>
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>195</v>
+      </c>
+      <c r="D20" s="5">
+        <f>C20*B20</f>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>730</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="1"/>
-        <v>730</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>294</v>
+      </c>
+      <c r="D21" s="5">
+        <f>C21*B21</f>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>295</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="1"/>
-        <v>295</v>
+        <v>62</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>345</v>
+      </c>
+      <c r="D22" s="5">
+        <f>C22*B22</f>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>494</v>
+      </c>
+      <c r="D23" s="5">
+        <f>C23*B23</f>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
         <v>395</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="1"/>
+      <c r="D24" s="5">
+        <f>C24*B24</f>
         <v>395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>120</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="1"/>
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C25" s="5">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <v>180</v>
+      </c>
+      <c r="D25" s="5">
+        <f>C25*B25</f>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
-        <v>8</v>
+      <c r="A26" t="s">
+        <v>66</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
       </c>
       <c r="C26" s="5">
-        <v>58</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <v>255</v>
+      </c>
+      <c r="D26" s="5">
+        <f>C26*B26</f>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B27" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5">
-        <v>400</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>375</v>
+      </c>
+      <c r="D27" s="5">
+        <f>C27*B27</f>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>8</v>
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
       </c>
       <c r="C28" s="5">
-        <v>120</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>254</v>
+      </c>
+      <c r="D28" s="5">
+        <f>C28*B28</f>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="C29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="9">
-        <f>SUM(D17:D28)</f>
-        <v>4388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>59</v>
+      <c r="A29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>195</v>
+      </c>
+      <c r="D29" s="5">
+        <f>C29*B29</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>395</v>
+      </c>
+      <c r="D30" s="5">
+        <f>C30*B30</f>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
       </c>
       <c r="C31" s="5">
-        <v>531</v>
+        <v>275</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" ref="D31:D46" si="2">C31*B31</f>
-        <v>531</v>
+        <f>C31*B31</f>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
       <c r="C32" s="5">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="2"/>
-        <v>291</v>
+        <f>C32*B32</f>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
       </c>
       <c r="C33" s="5">
-        <v>520</v>
+        <v>285</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="2"/>
-        <v>520</v>
+        <f>C33*B33</f>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
       </c>
       <c r="C34" s="5">
-        <v>601</v>
+        <v>245</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="2"/>
-        <v>601</v>
+        <f>C34*B34</f>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
       </c>
       <c r="C35" s="5">
-        <v>468</v>
+        <v>308</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="2"/>
-        <v>468</v>
+        <f>C35*B35</f>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
       </c>
       <c r="C36" s="5">
-        <v>465</v>
+        <v>315</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="2"/>
-        <v>465</v>
+        <f>C36*B36</f>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>66</v>
+      <c r="A37" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37" s="5">
-        <v>499</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="2"/>
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <f>C37*B37</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38" s="5">
-        <v>341</v>
+        <v>203</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="2"/>
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <f>C38*B38</f>
+        <v>203</v>
+      </c>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39" s="5">
-        <v>468</v>
+        <v>255</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="2"/>
-        <v>468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <f>C39*B39</f>
+        <v>255</v>
+      </c>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
       </c>
       <c r="C40" s="5">
-        <v>485</v>
+        <v>359</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="2"/>
-        <v>485</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <f>C40*B40</f>
+        <v>359</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41" s="5">
-        <v>451</v>
+        <v>219</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="2"/>
-        <v>451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <f>C41*B41</f>
+        <v>219</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42" s="5">
-        <v>520</v>
+        <v>247</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="2"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <f>C42*B42</f>
+        <v>247</v>
+      </c>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
       </c>
       <c r="C43" s="5">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="2"/>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <f>C43*B43</f>
+        <v>280</v>
+      </c>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44" s="5">
-        <v>509</v>
+        <v>194</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="2"/>
-        <v>509</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <f>C44*B44</f>
+        <v>194</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
       </c>
       <c r="C45" s="5">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="2"/>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6" t="s">
+        <f>C45*B45</f>
+        <v>384</v>
+      </c>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
+        <v>233</v>
+      </c>
+      <c r="D46" s="5">
+        <f>C46*B46</f>
+        <v>233</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <v>233</v>
+      </c>
+      <c r="D47" s="5">
+        <f>C47*B47</f>
+        <v>233</v>
+      </c>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <v>181</v>
+      </c>
+      <c r="D48" s="5">
+        <f>C48*B48</f>
+        <v>181</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5">
+        <v>212</v>
+      </c>
+      <c r="D49" s="5">
+        <f>C49*B49</f>
+        <v>212</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <v>268</v>
+      </c>
+      <c r="D50" s="5">
+        <f>C50*B50</f>
+        <v>268</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46" s="5">
-        <v>200</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="9">
-        <f>SUM(D31:D46)</f>
-        <v>7059</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48" s="5">
-        <v>351</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" ref="D48:D53" si="3">C48*B48</f>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49" s="5">
-        <v>529</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="3"/>
-        <v>529</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5">
-        <v>549</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="3"/>
-        <v>549</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
       <c r="B51" s="5">
         <v>1</v>
       </c>
       <c r="C51" s="5">
-        <v>495</v>
+        <v>195</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="3"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>79</v>
+        <f>C51*B51</f>
+        <v>195</v>
+      </c>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" ht="15.6" spans="1:5">
+      <c r="A52" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
       </c>
       <c r="C52" s="5">
-        <v>456</v>
+        <v>319</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="3"/>
-        <v>456</v>
+        <f>C52*B52</f>
+        <v>319</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4630,32 +4715,29 @@
         <v>85</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="3"/>
+        <f>C53*B53</f>
         <v>85</v>
       </c>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="9">
-        <f>SUM(D48:D53)</f>
-        <v>2465</v>
+      <c r="D54" s="11">
+        <f>SUM(D17:D53)</f>
+        <v>9801</v>
       </c>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="11">
-        <f>D54+D47+D29+D14</f>
-        <v>15758</v>
+      <c r="C55" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="16">
+        <f>D54+D15+D8</f>
+        <v>13408</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A20:D24">
-    <sortCondition ref="A20"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4678,178 +4760,178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
         <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Supplies.xlsx
+++ b/Supplies.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
   <si>
     <t>Quantity</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Gypsy Water</t>
+  </si>
+  <si>
+    <t>30mL Amber Glass Bottles</t>
   </si>
   <si>
     <t>125mL FO - Parfum Aromatics Co.</t>
@@ -1147,7 +1150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1172,15 +1175,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,6 +1312,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1788,10 +1803,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1010"/>
+  <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65:E66"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
@@ -2672,7 +2687,7 @@
         <f>488+10</f>
         <v>498</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2692,7 +2707,7 @@
       </c>
       <c r="E53" s="48"/>
       <c r="F53" s="47"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:6">
       <c r="A54" s="17" t="s">
@@ -2868,49 +2883,45 @@
         <v>16</v>
       </c>
       <c r="F63" s="5"/>
-      <c r="G63" s="36" t="s">
+      <c r="G63" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A64" s="6" t="s">
-        <v>8</v>
+      <c r="A64" t="s">
+        <v>26</v>
       </c>
       <c r="B64" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C64" s="5">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D64" s="53">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f>B64*C64</f>
+        <v>175</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="36"/>
+      <c r="G64" s="55"/>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:7">
       <c r="A65" t="s">
         <v>45</v>
       </c>
       <c r="B65" s="5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C65" s="5">
-        <v>813</v>
+        <v>15</v>
       </c>
       <c r="D65" s="53">
-        <f t="shared" si="1"/>
-        <v>813</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>16</v>
-      </c>
+        <f>B65*C65</f>
+        <v>225</v>
+      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="36" t="s">
-        <v>46</v>
-      </c>
+      <c r="G65" s="55"/>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:7">
       <c r="A66" s="6" t="s">
@@ -2923,15 +2934,53 @@
         <v>58</v>
       </c>
       <c r="D66" s="53">
-        <f t="shared" si="1"/>
+        <f>B66*C66</f>
         <v>58</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="36"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
+      <c r="G66" s="56"/>
+    </row>
+    <row r="67" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5">
+        <v>813</v>
+      </c>
+      <c r="D67" s="53">
+        <f>B67*C67</f>
+        <v>813</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5">
+        <v>58</v>
+      </c>
+      <c r="D68" s="53">
+        <f>B68*C68</f>
+        <v>58</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="36"/>
+    </row>
     <row r="69" ht="14.25" customHeight="1"/>
     <row r="70" ht="14.25" customHeight="1"/>
     <row r="71" ht="14.25" customHeight="1"/>
@@ -3874,8 +3923,10 @@
     <row r="1008" ht="14.25" customHeight="1"/>
     <row r="1009" ht="14.25" customHeight="1"/>
     <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="53">
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="E11:E12"/>
@@ -3898,8 +3949,8 @@
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="E67:E68"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F5:F10"/>
     <mergeCell ref="F11:F12"/>
@@ -3922,14 +3973,13 @@
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="F59:F60"/>
     <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F68"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G33:G35"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -3940,10 +3990,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3957,7 +4007,7 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3975,7 +4025,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -4003,19 +4053,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>35</v>
+        <v>520</v>
       </c>
       <c r="D5" s="4">
         <f>PRODUCT(B5:C5)</f>
-        <v>175</v>
+        <v>520</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4023,98 +4076,98 @@
         <v>50</v>
       </c>
       <c r="B6" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4">
         <f>PRODUCT(B6:C6)</f>
-        <v>225</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
+      <c r="A7" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <f>PRODUCT(B7:C7)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="9">
-        <f>SUM(D3:D7)</f>
-        <v>907</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="D8" s="4">
+        <f>PRODUCT(B8:C8)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10">
+        <f>SUM(D3:D8)</f>
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>405</v>
-      </c>
-      <c r="D11" s="4">
-        <f>PRODUCT(B11:C11)</f>
-        <v>1215</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>95</v>
       </c>
       <c r="D12" s="4">
         <f>PRODUCT(B12:C12)</f>
+        <v>1215</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
         <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>280</v>
       </c>
       <c r="D13" s="4">
         <f>PRODUCT(B13:C13)</f>
-        <v>280</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4122,44 +4175,44 @@
         <v>55</v>
       </c>
       <c r="B14" s="5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="D14" s="4">
         <f>PRODUCT(B14:C14)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4">
+        <f>PRODUCT(B15:C15)</f>
         <v>1110</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="C15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="11">
-        <f>SUM(D11:D14)</f>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="C16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="11">
+        <f>SUM(D12:D15)</f>
         <v>2700</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>295</v>
-      </c>
-      <c r="D17" s="5">
-        <f>C17*B17</f>
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4170,11 +4223,11 @@
         <v>1</v>
       </c>
       <c r="C18" s="5">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="D18" s="5">
-        <f>C18*B18</f>
-        <v>329</v>
+        <f t="shared" ref="D18:D54" si="0">C18*B18</f>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4185,11 +4238,11 @@
         <v>1</v>
       </c>
       <c r="C19" s="5">
-        <v>195</v>
+        <v>329</v>
       </c>
       <c r="D19" s="5">
-        <f>C19*B19</f>
-        <v>195</v>
+        <f t="shared" si="0"/>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4203,7 +4256,7 @@
         <v>195</v>
       </c>
       <c r="D20" s="5">
-        <f>C20*B20</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
     </row>
@@ -4215,11 +4268,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="D21" s="5">
-        <f>C21*B21</f>
-        <v>294</v>
+        <f t="shared" si="0"/>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4230,11 +4283,11 @@
         <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="D22" s="5">
-        <f>C22*B22</f>
-        <v>345</v>
+        <f t="shared" si="0"/>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4245,11 +4298,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="5">
-        <v>494</v>
+        <v>345</v>
       </c>
       <c r="D23" s="5">
-        <f>C23*B23</f>
-        <v>494</v>
+        <f t="shared" si="0"/>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4260,11 +4313,11 @@
         <v>1</v>
       </c>
       <c r="C24" s="5">
-        <v>395</v>
+        <v>494</v>
       </c>
       <c r="D24" s="5">
-        <f>C24*B24</f>
-        <v>395</v>
+        <f t="shared" si="0"/>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4275,11 +4328,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="5">
-        <v>180</v>
+        <v>395</v>
       </c>
       <c r="D25" s="5">
-        <f>C25*B25</f>
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4290,11 +4343,11 @@
         <v>1</v>
       </c>
       <c r="C26" s="5">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="D26" s="5">
-        <f>C26*B26</f>
-        <v>255</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4305,11 +4358,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="5">
-        <v>375</v>
+        <v>255</v>
       </c>
       <c r="D27" s="5">
-        <f>C27*B27</f>
-        <v>375</v>
+        <f t="shared" si="0"/>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4320,41 +4373,41 @@
         <v>1</v>
       </c>
       <c r="C28" s="5">
+        <v>375</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
         <v>254</v>
       </c>
-      <c r="D28" s="5">
-        <f>C28*B28</f>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5">
+    <row r="30" spans="1:4">
+      <c r="A30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
         <v>195</v>
       </c>
-      <c r="D29" s="5">
-        <f>C29*B29</f>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
         <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
-        <v>395</v>
-      </c>
-      <c r="D30" s="5">
-        <f>C30*B30</f>
-        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4365,11 +4418,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="5">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="D31" s="5">
-        <f>C31*B31</f>
-        <v>275</v>
+        <f t="shared" si="0"/>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4380,11 +4433,11 @@
         <v>1</v>
       </c>
       <c r="C32" s="5">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="D32" s="5">
-        <f>C32*B32</f>
-        <v>215</v>
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4395,11 +4448,11 @@
         <v>1</v>
       </c>
       <c r="C33" s="5">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="D33" s="5">
-        <f>C33*B33</f>
-        <v>285</v>
+        <f t="shared" si="0"/>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4410,11 +4463,11 @@
         <v>1</v>
       </c>
       <c r="C34" s="5">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="D34" s="5">
-        <f>C34*B34</f>
-        <v>245</v>
+        <f t="shared" si="0"/>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4425,11 +4478,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="5">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="D35" s="5">
-        <f>C35*B35</f>
-        <v>308</v>
+        <f t="shared" si="0"/>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4440,43 +4493,42 @@
         <v>1</v>
       </c>
       <c r="C36" s="5">
+        <v>308</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
         <v>315</v>
       </c>
-      <c r="D36" s="5">
-        <f>C36*B36</f>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
         <v>95</v>
       </c>
-      <c r="D37" s="5">
-        <f>C37*B37</f>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5">
-        <v>203</v>
-      </c>
-      <c r="D38" s="5">
-        <f>C38*B38</f>
-        <v>203</v>
-      </c>
-      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
@@ -4486,11 +4538,11 @@
         <v>1</v>
       </c>
       <c r="C39" s="5">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="D39" s="5">
-        <f>C39*B39</f>
-        <v>255</v>
+        <f t="shared" si="0"/>
+        <v>203</v>
       </c>
       <c r="E39" s="12"/>
     </row>
@@ -4502,11 +4554,11 @@
         <v>1</v>
       </c>
       <c r="C40" s="5">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="D40" s="5">
-        <f>C40*B40</f>
-        <v>359</v>
+        <f t="shared" si="0"/>
+        <v>255</v>
       </c>
       <c r="E40" s="12"/>
     </row>
@@ -4518,11 +4570,11 @@
         <v>1</v>
       </c>
       <c r="C41" s="5">
-        <v>219</v>
+        <v>359</v>
       </c>
       <c r="D41" s="5">
-        <f>C41*B41</f>
-        <v>219</v>
+        <f t="shared" si="0"/>
+        <v>359</v>
       </c>
       <c r="E41" s="12"/>
     </row>
@@ -4534,11 +4586,11 @@
         <v>1</v>
       </c>
       <c r="C42" s="5">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="D42" s="5">
-        <f>C42*B42</f>
-        <v>247</v>
+        <f t="shared" si="0"/>
+        <v>219</v>
       </c>
       <c r="E42" s="12"/>
     </row>
@@ -4550,11 +4602,11 @@
         <v>1</v>
       </c>
       <c r="C43" s="5">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="D43" s="5">
-        <f>C43*B43</f>
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>247</v>
       </c>
       <c r="E43" s="12"/>
     </row>
@@ -4566,11 +4618,11 @@
         <v>1</v>
       </c>
       <c r="C44" s="5">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="D44" s="5">
-        <f>C44*B44</f>
-        <v>194</v>
+        <f t="shared" si="0"/>
+        <v>280</v>
       </c>
       <c r="E44" s="12"/>
     </row>
@@ -4582,11 +4634,11 @@
         <v>1</v>
       </c>
       <c r="C45" s="5">
-        <v>384</v>
+        <v>194</v>
       </c>
       <c r="D45" s="5">
-        <f>C45*B45</f>
-        <v>384</v>
+        <f t="shared" si="0"/>
+        <v>194</v>
       </c>
       <c r="E45" s="12"/>
     </row>
@@ -4598,11 +4650,11 @@
         <v>1</v>
       </c>
       <c r="C46" s="5">
-        <v>233</v>
+        <v>384</v>
       </c>
       <c r="D46" s="5">
-        <f>C46*B46</f>
-        <v>233</v>
+        <f t="shared" si="0"/>
+        <v>384</v>
       </c>
       <c r="E46" s="12"/>
     </row>
@@ -4617,7 +4669,7 @@
         <v>233</v>
       </c>
       <c r="D47" s="5">
-        <f>C47*B47</f>
+        <f t="shared" si="0"/>
         <v>233</v>
       </c>
       <c r="E47" s="12"/>
@@ -4630,11 +4682,11 @@
         <v>1</v>
       </c>
       <c r="C48" s="5">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="D48" s="5">
-        <f>C48*B48</f>
-        <v>181</v>
+        <f t="shared" si="0"/>
+        <v>233</v>
       </c>
       <c r="E48" s="12"/>
     </row>
@@ -4646,95 +4698,111 @@
         <v>1</v>
       </c>
       <c r="C49" s="5">
+        <v>181</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
         <v>212</v>
       </c>
-      <c r="D49" s="5">
-        <f>C49*B49</f>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
         <v>268</v>
       </c>
-      <c r="D50" s="5">
-        <f>C50*B50</f>
+      <c r="D51" s="5">
+        <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="6" t="s">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5">
         <v>195</v>
       </c>
-      <c r="D51" s="5">
-        <f>C51*B51</f>
+      <c r="D52" s="5">
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" ht="15.6" spans="1:5">
-      <c r="A52" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5">
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" ht="15.6" spans="1:5">
+      <c r="A53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5">
         <v>319</v>
       </c>
-      <c r="D52" s="5">
-        <f>C52*B52</f>
+      <c r="D53" s="5">
+        <f t="shared" si="0"/>
         <v>319</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
+      <c r="E53" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5">
         <v>85</v>
       </c>
-      <c r="D53" s="5">
-        <f>C53*B53</f>
+      <c r="D54" s="5">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="11">
-        <f>SUM(D17:D53)</f>
+    <row r="55" spans="3:4">
+      <c r="C55" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="11">
+        <f>SUM(D18:D54)</f>
         <v>9801</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="16">
-        <f>D54+D15+D8</f>
-        <v>13408</v>
+    <row r="56" spans="3:4">
+      <c r="C56" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="16">
+        <f>D55+D16+D9</f>
+        <v>13928</v>
       </c>
     </row>
   </sheetData>
@@ -4760,178 +4828,178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Supplies.xlsx
+++ b/Supplies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8952" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Estimate (Inspired)" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="129">
   <si>
     <t>Quantity</t>
   </si>
@@ -265,6 +265,9 @@
     <t>copaiba</t>
   </si>
   <si>
+    <t>sage</t>
+  </si>
+  <si>
     <t>tea tree</t>
   </si>
   <si>
@@ -301,7 +304,16 @@
     <t>turmeric</t>
   </si>
   <si>
-    <t>spearmint</t>
+    <t>peppermint</t>
+  </si>
+  <si>
+    <t>black pepper</t>
+  </si>
+  <si>
+    <t>tulip</t>
+  </si>
+  <si>
+    <t>lemongrass</t>
   </si>
   <si>
     <t>vetiver</t>
@@ -1150,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1310,20 +1322,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1805,8 +1811,8 @@
   <sheetPr/>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
@@ -2759,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="D57" s="49">
-        <f t="shared" ref="D57:D66" si="1">B57*C57</f>
+        <f t="shared" ref="D57:D68" si="1">B57*C57</f>
         <v>1000</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -2788,16 +2794,16 @@
       <c r="F58" s="51"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="50">
+      <c r="B59" s="44">
         <v>2</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="44">
         <v>46</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="17">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
@@ -2810,16 +2816,16 @@
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="50">
-        <v>1</v>
-      </c>
-      <c r="C60" s="50">
+      <c r="B60" s="44">
+        <v>1</v>
+      </c>
+      <c r="C60" s="44">
         <v>58</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="17">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
@@ -2827,16 +2833,16 @@
       <c r="F60" s="51"/>
     </row>
     <row r="61" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="50">
+      <c r="B61" s="44">
         <v>3</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="44">
         <v>230</v>
       </c>
-      <c r="D61" s="49">
+      <c r="D61" s="17">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
@@ -2849,16 +2855,16 @@
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="50">
-        <v>1</v>
-      </c>
-      <c r="C62" s="50">
+      <c r="B62" s="44">
+        <v>1</v>
+      </c>
+      <c r="C62" s="44">
         <v>125</v>
       </c>
-      <c r="D62" s="49">
+      <c r="D62" s="17">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
@@ -2866,80 +2872,83 @@
       <c r="F62" s="51"/>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A63" t="s">
+      <c r="A63" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5">
+      <c r="B63" s="50">
+        <v>1</v>
+      </c>
+      <c r="C63" s="50">
+        <f>520</f>
         <v>520</v>
       </c>
-      <c r="D63" s="53">
+      <c r="D63" s="49">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="54" t="s">
+      <c r="F63" s="23">
+        <v>1011</v>
+      </c>
+      <c r="G63" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A64" t="s">
+      <c r="A64" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="50">
         <v>5</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="50">
         <v>35</v>
       </c>
-      <c r="D64" s="53">
-        <f>B64*C64</f>
+      <c r="D64" s="49">
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="55"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="53"/>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A65" t="s">
+      <c r="A65" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="50">
         <v>15</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="50">
         <v>15</v>
       </c>
-      <c r="D65" s="53">
-        <f>B65*C65</f>
+      <c r="D65" s="49">
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="53"/>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66" s="5">
+      <c r="B66" s="50">
+        <v>1</v>
+      </c>
+      <c r="C66" s="50">
         <v>58</v>
       </c>
-      <c r="D66" s="53">
-        <f>B66*C66</f>
+      <c r="D66" s="49">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="56"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="54"/>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:7">
       <c r="A67" t="s">
@@ -2951,15 +2960,15 @@
       <c r="C67" s="5">
         <v>813</v>
       </c>
-      <c r="D67" s="53">
-        <f>B67*C67</f>
+      <c r="D67" s="55">
+        <f t="shared" si="1"/>
         <v>813</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="57" t="s">
+      <c r="G67" s="36" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2973,13 +2982,13 @@
       <c r="C68" s="5">
         <v>58</v>
       </c>
-      <c r="D68" s="53">
-        <f>B68*C68</f>
+      <c r="D68" s="55">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="36"/>
+      <c r="G68" s="54"/>
     </row>
     <row r="69" ht="14.25" customHeight="1"/>
     <row r="70" ht="14.25" customHeight="1"/>
@@ -3926,7 +3935,7 @@
     <row r="1011" ht="14.25" customHeight="1"/>
     <row r="1012" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="52">
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="E11:E12"/>
@@ -3979,7 +3988,6 @@
     <mergeCell ref="G33:G35"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G67:G68"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
@@ -3990,10 +3998,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4034,7 +4042,7 @@
         <v>109</v>
       </c>
       <c r="D3" s="4">
-        <f>PRODUCT(B3:C3)</f>
+        <f t="shared" ref="D3:D8" si="0">PRODUCT(B3:C3)</f>
         <v>327</v>
       </c>
     </row>
@@ -4049,7 +4057,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="4">
-        <f>PRODUCT(B4:C4)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
@@ -4064,7 +4072,7 @@
         <v>520</v>
       </c>
       <c r="D5" s="4">
-        <f>PRODUCT(B5:C5)</f>
+        <f t="shared" si="0"/>
         <v>520</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -4082,7 +4090,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="4">
-        <f>PRODUCT(B6:C6)</f>
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
     </row>
@@ -4097,7 +4105,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="4">
-        <f>PRODUCT(B7:C7)</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
     </row>
@@ -4112,7 +4120,7 @@
         <v>95</v>
       </c>
       <c r="D8" s="4">
-        <f>PRODUCT(B8:C8)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
@@ -4226,7 +4234,7 @@
         <v>295</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ref="D18:D54" si="0">C18*B18</f>
+        <f t="shared" ref="D18:D29" si="1">C18*B18</f>
         <v>295</v>
       </c>
     </row>
@@ -4241,7 +4249,7 @@
         <v>329</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>329</v>
       </c>
     </row>
@@ -4256,7 +4264,7 @@
         <v>195</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
@@ -4271,7 +4279,7 @@
         <v>195</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
@@ -4286,7 +4294,7 @@
         <v>294</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>294</v>
       </c>
     </row>
@@ -4301,7 +4309,7 @@
         <v>345</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>345</v>
       </c>
     </row>
@@ -4316,7 +4324,7 @@
         <v>494</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>494</v>
       </c>
     </row>
@@ -4331,7 +4339,7 @@
         <v>395</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
     </row>
@@ -4346,7 +4354,7 @@
         <v>180</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
@@ -4361,7 +4369,7 @@
         <v>255</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
     </row>
@@ -4376,161 +4384,161 @@
         <v>375</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>58</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="5">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
         <v>254</v>
       </c>
-      <c r="D29" s="5">
-        <f t="shared" si="0"/>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:D59" si="2">C30*B30</f>
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
         <v>195</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" si="0"/>
+      <c r="D31" s="5">
+        <f t="shared" si="2"/>
         <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5">
-        <v>395</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
       <c r="C32" s="5">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>275</v>
+        <f t="shared" si="2"/>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
       </c>
       <c r="C33" s="5">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="0"/>
-        <v>215</v>
+        <f t="shared" si="2"/>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
       </c>
       <c r="C34" s="5">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="0"/>
-        <v>285</v>
+        <f t="shared" si="2"/>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
       </c>
       <c r="C35" s="5">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="0"/>
-        <v>245</v>
+        <f t="shared" si="2"/>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
       </c>
       <c r="C36" s="5">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="0"/>
-        <v>308</v>
+        <f t="shared" si="2"/>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <v>308</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
         <v>315</v>
       </c>
-      <c r="D37" s="5">
-        <f t="shared" si="0"/>
+      <c r="D38" s="5">
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5">
-        <v>95</v>
-      </c>
-      <c r="D38" s="5">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4538,223 +4546,221 @@
         <v>1</v>
       </c>
       <c r="C39" s="5">
-        <v>203</v>
+        <v>339</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
       </c>
       <c r="C40" s="5">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="E40" s="12"/>
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41" s="5">
-        <v>359</v>
+        <v>203</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="0"/>
-        <v>359</v>
+        <f t="shared" si="2"/>
+        <v>203</v>
       </c>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42" s="5">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="0"/>
-        <v>219</v>
+        <f t="shared" si="2"/>
+        <v>255</v>
       </c>
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
       </c>
       <c r="C43" s="5">
-        <v>247</v>
+        <v>359</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="0"/>
-        <v>247</v>
+        <f t="shared" si="2"/>
+        <v>359</v>
       </c>
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44" s="5">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="0"/>
-        <v>280</v>
+        <f t="shared" si="2"/>
+        <v>219</v>
       </c>
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
       </c>
       <c r="C45" s="5">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="0"/>
-        <v>194</v>
+        <f t="shared" si="2"/>
+        <v>247</v>
       </c>
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
       </c>
       <c r="C46" s="5">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="0"/>
-        <v>384</v>
+        <f t="shared" si="2"/>
+        <v>280</v>
       </c>
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
       </c>
       <c r="C47" s="5">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="0"/>
-        <v>233</v>
+        <f t="shared" si="2"/>
+        <v>194</v>
       </c>
       <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
       </c>
       <c r="C48" s="5">
-        <v>233</v>
+        <v>384</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="0"/>
-        <v>233</v>
+        <f t="shared" si="2"/>
+        <v>384</v>
       </c>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
       </c>
       <c r="C49" s="5">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="0"/>
-        <v>181</v>
+        <f t="shared" si="2"/>
+        <v>233</v>
       </c>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5">
+        <v>233</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5">
+        <v>181</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5">
         <v>212</v>
       </c>
-      <c r="D50" s="5">
-        <f t="shared" si="0"/>
+      <c r="D52" s="5">
+        <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51" s="5">
-        <v>268</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="0"/>
-        <v>268</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5">
-        <v>195</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" ht="15.6" spans="1:5">
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="7" t="s">
         <v>91</v>
       </c>
@@ -4762,47 +4768,127 @@
         <v>1</v>
       </c>
       <c r="C53" s="5">
+        <v>203</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5">
+        <v>248</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5">
+        <v>198</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>209</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>195</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" ht="15.6" spans="1:5">
+      <c r="A58" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5">
         <v>319</v>
       </c>
-      <c r="D53" s="5">
-        <f t="shared" si="0"/>
+      <c r="D58" s="5">
+        <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6" t="s">
+      <c r="E58" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54" s="5">
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
         <v>85</v>
       </c>
-      <c r="D54" s="5">
-        <f t="shared" si="0"/>
+      <c r="D59" s="5">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="9" t="s">
+    <row r="60" spans="3:4">
+      <c r="C60" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="11">
-        <f>SUM(D18:D54)</f>
-        <v>9801</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="16">
-        <f>D55+D16+D9</f>
-        <v>13928</v>
+      <c r="D60" s="11">
+        <f>SUM(D18:D59)</f>
+        <v>10751</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="16">
+        <f>D60+D16+D9</f>
+        <v>14878</v>
       </c>
     </row>
   </sheetData>
@@ -4828,178 +4914,178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Supplies.xlsx
+++ b/Supplies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8952"/>
+    <workbookView windowWidth="23040" windowHeight="8952" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Estimate (Inspired)" sheetId="2" r:id="rId1"/>
@@ -637,6 +637,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -650,12 +656,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1184,73 +1184,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1262,19 +1271,19 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1290,12 +1299,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1811,8 +1814,8 @@
   <sheetPr/>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
@@ -1852,291 +1855,291 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
         <v>137</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="23">
         <v>157.89</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
         <v>58</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="19"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>56.89</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="23">
         <v>330.34</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
         <v>66.55</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
         <v>24.85</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
         <v>84.63</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
         <v>97.42</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <v>708.31</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="23">
         <v>708.31</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
         <v>0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
         <v>118</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="23">
         <v>129</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
         <v>8</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="8">
         <v>3</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="8">
         <v>25</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="23">
         <v>132.5</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="18">
-        <v>1</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
         <v>65</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
         <v>139</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="26">
         <v>204</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
         <v>65</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="27">
         <f>SUM(F3:F18)</f>
         <v>1662.04</v>
       </c>
@@ -2151,394 +2154,394 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="8">
         <v>78</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="8">
         <v>19</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="23">
         <v>1577</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="18">
-        <v>1</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
         <v>95</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="8">
         <v>0</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="8">
         <v>2</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="8">
         <v>0</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="8">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="23">
         <v>220</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="18">
-        <v>1</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>0</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="8">
         <v>0</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="19"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" ht="32" customHeight="1" spans="1:7">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="26">
+      <c r="B26" s="29">
+        <v>1</v>
+      </c>
+      <c r="C26" s="29">
         <f>520+590+520+650+520+460+720+590</f>
         <v>4570</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="29">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="30">
         <v>4378</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="26">
-        <v>1</v>
-      </c>
-      <c r="C27" s="26">
+      <c r="B27" s="29">
+        <v>1</v>
+      </c>
+      <c r="C27" s="29">
         <v>-192</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="29">
         <v>0</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="28"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="29">
         <v>8</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="29">
         <v>230</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="29">
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="35">
         <v>2480</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="29">
         <v>15</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="29">
         <v>35</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="29">
         <v>0</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="26">
-        <v>1</v>
-      </c>
-      <c r="C30" s="26">
+      <c r="B30" s="29">
+        <v>1</v>
+      </c>
+      <c r="C30" s="29">
         <v>365</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="29">
         <v>0</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="29">
         <v>91</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="29">
         <v>12</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="29">
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="38">
         <v>1034</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="26">
-        <v>1</v>
-      </c>
-      <c r="C32" s="26">
+      <c r="B32" s="29">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29">
         <v>-30</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="29">
         <v>0</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="35"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="26">
-        <v>1</v>
-      </c>
-      <c r="C33" s="26">
+      <c r="B33" s="29">
+        <v>1</v>
+      </c>
+      <c r="C33" s="29">
         <f>575+595+645+595</f>
         <v>2410</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="29">
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="35">
         <v>2674</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="29">
         <v>6</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="29">
         <v>44</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="29">
         <v>0</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="36"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="39"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="26">
-        <v>1</v>
-      </c>
-      <c r="C35" s="26">
+      <c r="B35" s="29">
+        <v>1</v>
+      </c>
+      <c r="C35" s="29">
         <v>8</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="29">
         <v>0</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="36"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="39"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="37">
-        <v>1</v>
-      </c>
-      <c r="C36" s="26">
+      <c r="B36" s="40">
+        <v>1</v>
+      </c>
+      <c r="C36" s="29">
         <v>473</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="29">
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="35">
         <v>481</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="37">
-        <v>1</v>
-      </c>
-      <c r="C37" s="26">
+      <c r="B37" s="40">
+        <v>1</v>
+      </c>
+      <c r="C37" s="29">
         <v>8</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="29">
         <v>0</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="36"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="40">
         <v>6</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="29">
         <v>175</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="29">
         <v>0</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="35">
         <v>1717</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="37">
-        <v>1</v>
-      </c>
-      <c r="C39" s="26">
+      <c r="B39" s="40">
+        <v>1</v>
+      </c>
+      <c r="C39" s="29">
         <v>380</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="29">
         <v>0</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="32"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="37">
-        <v>1</v>
-      </c>
-      <c r="C40" s="26">
+      <c r="B40" s="40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="29">
         <v>247</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="29">
         <v>0</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="32"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="35"/>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="37">
-        <v>1</v>
-      </c>
-      <c r="C41" s="26">
+      <c r="B41" s="40">
+        <v>1</v>
+      </c>
+      <c r="C41" s="29">
         <v>40</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="29">
         <v>0</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="32"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="3:4">
       <c r="C42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="27">
         <f>SUM(F22:F41)</f>
         <v>14561</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1" spans="3:4">
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="43">
         <f>SUM(D19,D42)</f>
         <v>16223.04</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="2:4">
-      <c r="B44" s="38"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="42"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="45"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:4">
       <c r="A45" s="1" t="s">
@@ -2555,400 +2558,400 @@
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="9">
         <v>14</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="9">
         <v>46</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="9">
         <f t="shared" ref="D46:D55" si="0">B46*C46</f>
         <v>644</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E46" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="47">
         <f>644+8+13</f>
         <v>665</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="44">
-        <v>1</v>
-      </c>
-      <c r="C47" s="44">
+      <c r="B47" s="9">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9">
         <v>58</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="47"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="48"/>
     </row>
     <row r="48" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="9">
         <v>30</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="9">
         <v>20</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="9">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="47">
         <f>600+58+13</f>
         <v>671</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="44">
-        <v>1</v>
-      </c>
-      <c r="C49" s="44">
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9">
         <v>105</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="9">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="47"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="48"/>
     </row>
     <row r="50" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="9">
         <v>3</v>
       </c>
-      <c r="C50" s="44">
+      <c r="C50" s="9">
         <v>230</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="9">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="47">
         <f>573+0</f>
         <v>573</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="44">
-        <v>1</v>
-      </c>
-      <c r="C51" s="44">
+      <c r="B51" s="9">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9">
         <v>105</v>
       </c>
-      <c r="D51" s="44">
+      <c r="D51" s="9">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="47"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="48"/>
     </row>
     <row r="52" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="44">
-        <v>1</v>
-      </c>
-      <c r="C52" s="44">
+      <c r="B52" s="9">
+        <v>1</v>
+      </c>
+      <c r="C52" s="9">
         <f>488</f>
         <v>488</v>
       </c>
-      <c r="D52" s="44">
+      <c r="D52" s="9">
         <f t="shared" si="0"/>
         <v>488</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="46">
+      <c r="F52" s="47">
         <f>488+10</f>
         <v>498</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="44">
-        <v>1</v>
-      </c>
-      <c r="C53" s="44">
+      <c r="B53" s="9">
+        <v>1</v>
+      </c>
+      <c r="C53" s="9">
         <v>58</v>
       </c>
-      <c r="D53" s="44">
+      <c r="D53" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="8"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="44">
-        <v>1</v>
-      </c>
-      <c r="C54" s="44">
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+      <c r="C54" s="9">
         <v>559.48</v>
       </c>
-      <c r="D54" s="44">
+      <c r="D54" s="9">
         <f t="shared" si="0"/>
         <v>559.48</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="46">
+      <c r="F54" s="47">
         <v>450.42</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="44">
-        <v>1</v>
-      </c>
-      <c r="C55" s="44">
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+      <c r="C55" s="9">
         <v>65</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="47"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" ht="14.25" customHeight="1"/>
     <row r="57" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="50">
+      <c r="B57" s="51">
         <v>50</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="51">
         <v>20</v>
       </c>
-      <c r="D57" s="49">
+      <c r="D57" s="50">
         <f t="shared" ref="D57:D68" si="1">B57*C57</f>
         <v>1000</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="51">
+      <c r="F57" s="52">
         <f>996+105+22</f>
         <v>1123</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="50">
-        <v>1</v>
-      </c>
-      <c r="C58" s="50">
+      <c r="B58" s="51">
+        <v>1</v>
+      </c>
+      <c r="C58" s="51">
         <v>105</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="50">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="51"/>
+      <c r="F58" s="52"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="44">
+      <c r="B59" s="9">
         <v>2</v>
       </c>
-      <c r="C59" s="44">
+      <c r="C59" s="9">
         <v>46</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="22">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="51">
+      <c r="F59" s="52">
         <f>92+58+3</f>
         <v>153</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="44">
-        <v>1</v>
-      </c>
-      <c r="C60" s="44">
+      <c r="B60" s="9">
+        <v>1</v>
+      </c>
+      <c r="C60" s="9">
         <v>58</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="22">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="51"/>
+      <c r="F60" s="52"/>
     </row>
     <row r="61" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="44">
+      <c r="B61" s="9">
         <v>3</v>
       </c>
-      <c r="C61" s="44">
+      <c r="C61" s="9">
         <v>230</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="22">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="51">
+      <c r="F61" s="52">
         <f>690+45+15</f>
         <v>750</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="44">
-        <v>1</v>
-      </c>
-      <c r="C62" s="44">
+      <c r="B62" s="9">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9">
         <v>125</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="22">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="51"/>
+      <c r="F62" s="52"/>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="50">
-        <v>1</v>
-      </c>
-      <c r="C63" s="50">
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9">
         <f>520</f>
         <v>520</v>
       </c>
-      <c r="D63" s="49">
+      <c r="D63" s="22">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="26">
         <v>1011</v>
       </c>
-      <c r="G63" s="36" t="s">
+      <c r="G63" s="39" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="50">
+      <c r="B64" s="9">
         <v>5</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="9">
         <v>35</v>
       </c>
-      <c r="D64" s="49">
+      <c r="D64" s="22">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="53"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="54"/>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="50">
+      <c r="B65" s="9">
         <v>15</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="9">
         <v>15</v>
       </c>
-      <c r="D65" s="49">
+      <c r="D65" s="22">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="53"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="54"/>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="50">
-        <v>1</v>
-      </c>
-      <c r="C66" s="50">
+      <c r="B66" s="9">
+        <v>1</v>
+      </c>
+      <c r="C66" s="9">
         <v>58</v>
       </c>
-      <c r="D66" s="49">
+      <c r="D66" s="22">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="54"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="55"/>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:7">
       <c r="A67" t="s">
@@ -2960,7 +2963,7 @@
       <c r="C67" s="5">
         <v>813</v>
       </c>
-      <c r="D67" s="55">
+      <c r="D67" s="56">
         <f t="shared" si="1"/>
         <v>813</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="36" t="s">
+      <c r="G67" s="39" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2982,13 +2985,13 @@
       <c r="C68" s="5">
         <v>58</v>
       </c>
-      <c r="D68" s="55">
+      <c r="D68" s="56">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="54"/>
+      <c r="G68" s="55"/>
     </row>
     <row r="69" ht="14.25" customHeight="1"/>
     <row r="70" ht="14.25" customHeight="1"/>
@@ -3998,22 +4001,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="35.2105263157895" customWidth="1"/>
     <col min="2" max="2" width="5.21052631578947" customWidth="1"/>
     <col min="3" max="3" width="13.0877192982456" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8.8421052631579" style="2"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8.8421052631579" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -4023,15 +4027,17 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -4045,8 +4051,9 @@
         <f t="shared" ref="D3:D8" si="0">PRODUCT(B3:C3)</f>
         <v>327</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -4060,92 +4067,101 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
         <v>520</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10">
+        <v>1011</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="9">
         <v>35</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="8">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="9">
         <v>15</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
         <v>95</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="14">
         <f>SUM(D3:D8)</f>
         <v>1427</v>
       </c>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -4159,11 +4175,12 @@
         <f>PRODUCT(B12:C12)</f>
         <v>1215</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -4177,9 +4194,10 @@
         <f>PRODUCT(B13:C13)</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="5">
@@ -4192,9 +4210,10 @@
         <f>PRODUCT(B14:C14)</f>
         <v>280</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="5">
@@ -4207,23 +4226,25 @@
         <f>PRODUCT(B15:C15)</f>
         <v>1110</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="16">
         <f>SUM(D12:D15)</f>
         <v>2700</v>
       </c>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -4237,8 +4258,9 @@
         <f t="shared" ref="D18:D29" si="1">C18*B18</f>
         <v>295</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -4252,8 +4274,9 @@
         <f t="shared" si="1"/>
         <v>329</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -4267,8 +4290,9 @@
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -4282,8 +4306,9 @@
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -4297,8 +4322,9 @@
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -4312,8 +4338,9 @@
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -4327,8 +4354,9 @@
         <f t="shared" si="1"/>
         <v>494</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -4342,8 +4370,9 @@
         <f t="shared" si="1"/>
         <v>395</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -4357,8 +4386,9 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -4372,8 +4402,9 @@
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -4387,8 +4418,9 @@
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -4402,8 +4434,9 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -4417,9 +4450,10 @@
         <f t="shared" ref="D30:D59" si="2">C30*B30</f>
         <v>254</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="5">
@@ -4432,8 +4466,9 @@
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -4447,8 +4482,9 @@
         <f t="shared" si="2"/>
         <v>395</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4462,8 +4498,9 @@
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -4477,8 +4514,9 @@
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4492,8 +4530,9 @@
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -4507,8 +4546,9 @@
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -4522,8 +4562,9 @@
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -4537,8 +4578,9 @@
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4552,8 +4594,9 @@
         <f t="shared" si="2"/>
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -4567,8 +4610,9 @@
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -4582,9 +4626,10 @@
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="5"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -4598,9 +4643,10 @@
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" s="5"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -4614,9 +4660,10 @@
         <f t="shared" si="2"/>
         <v>359</v>
       </c>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="5"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -4630,9 +4677,10 @@
         <f t="shared" si="2"/>
         <v>219</v>
       </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="5"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -4646,9 +4694,10 @@
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="5"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -4662,9 +4711,10 @@
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="5"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -4678,9 +4728,10 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="5"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -4694,9 +4745,10 @@
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="5"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -4710,9 +4762,10 @@
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="5"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -4726,9 +4779,10 @@
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="5"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -4742,9 +4796,10 @@
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="5"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>90</v>
       </c>
@@ -4758,10 +4813,11 @@
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="7" t="s">
+      <c r="E52" s="5"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B53" s="5">
@@ -4774,10 +4830,11 @@
         <f t="shared" si="2"/>
         <v>203</v>
       </c>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="7" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B54" s="5">
@@ -4790,10 +4847,11 @@
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="7" t="s">
+      <c r="E54" s="5"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B55" s="5">
@@ -4806,10 +4864,11 @@
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="7" t="s">
+      <c r="E55" s="5"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="5">
@@ -4822,9 +4881,10 @@
         <f t="shared" si="2"/>
         <v>209</v>
       </c>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="5"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="6" t="s">
         <v>8</v>
       </c>
@@ -4838,10 +4898,11 @@
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" ht="15.6" spans="1:5">
-      <c r="A58" s="7" t="s">
+      <c r="E57" s="5"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" ht="15.6" spans="1:6">
+      <c r="A58" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B58" s="5">
@@ -4854,11 +4915,12 @@
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
         <v>8</v>
       </c>
@@ -4872,26 +4934,32 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="9" t="s">
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="16">
         <f>SUM(D18:D59)</f>
         <v>10751</v>
       </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="15" t="s">
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="21">
         <f>D60+D16+D9</f>
         <v>14878</v>
       </c>
+      <c r="E61" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:E8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Supplies.xlsx
+++ b/Supplies.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
   <si>
     <t>Quantity</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>sage</t>
+  </si>
+  <si>
+    <t>coriander</t>
   </si>
   <si>
     <t>tea tree</t>
@@ -4001,10 +4004,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -4012,8 +4015,7 @@
     <col min="1" max="1" width="35.2105263157895" customWidth="1"/>
     <col min="2" max="2" width="5.21052631578947" customWidth="1"/>
     <col min="3" max="3" width="13.0877192982456" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="8.8421052631579" style="2"/>
   </cols>
   <sheetData>
@@ -4447,7 +4449,7 @@
         <v>254</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" ref="D30:D59" si="2">C30*B30</f>
+        <f>C30*B30</f>
         <v>254</v>
       </c>
       <c r="E30" s="5"/>
@@ -4463,7 +4465,7 @@
         <v>195</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="2"/>
+        <f>C31*B31</f>
         <v>195</v>
       </c>
       <c r="E31" s="5"/>
@@ -4479,7 +4481,7 @@
         <v>395</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="2"/>
+        <f>C32*B32</f>
         <v>395</v>
       </c>
       <c r="E32" s="5"/>
@@ -4495,7 +4497,7 @@
         <v>275</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="2"/>
+        <f>C33*B33</f>
         <v>275</v>
       </c>
       <c r="E33" s="5"/>
@@ -4511,7 +4513,7 @@
         <v>215</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="2"/>
+        <f>C34*B34</f>
         <v>215</v>
       </c>
       <c r="E34" s="5"/>
@@ -4527,7 +4529,7 @@
         <v>285</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="2"/>
+        <f>C35*B35</f>
         <v>285</v>
       </c>
       <c r="E35" s="5"/>
@@ -4543,7 +4545,7 @@
         <v>245</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="2"/>
+        <f>C36*B36</f>
         <v>245</v>
       </c>
       <c r="E36" s="5"/>
@@ -4559,7 +4561,7 @@
         <v>308</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="2"/>
+        <f>C37*B37</f>
         <v>308</v>
       </c>
       <c r="E37" s="5"/>
@@ -4575,7 +4577,7 @@
         <v>315</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="2"/>
+        <f>C38*B38</f>
         <v>315</v>
       </c>
       <c r="E38" s="5"/>
@@ -4591,43 +4593,42 @@
         <v>339</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="2"/>
+        <f>C39*B39</f>
         <v>339</v>
       </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="6" t="s">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
+        <v>299</v>
+      </c>
+      <c r="D40" s="5">
+        <f>C40*B40</f>
+        <v>299</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5">
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
         <v>58</v>
       </c>
-      <c r="D40" s="5">
-        <f t="shared" si="2"/>
+      <c r="D41" s="5">
+        <f t="shared" ref="D41:D60" si="2">C41*B41</f>
         <v>58</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" s="5">
-        <v>203</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
@@ -4637,11 +4638,11 @@
         <v>1</v>
       </c>
       <c r="C42" s="5">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="2"/>
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="17"/>
@@ -4654,11 +4655,11 @@
         <v>1</v>
       </c>
       <c r="C43" s="5">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="2"/>
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="17"/>
@@ -4671,11 +4672,11 @@
         <v>1</v>
       </c>
       <c r="C44" s="5">
-        <v>219</v>
+        <v>359</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>359</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="17"/>
@@ -4688,11 +4689,11 @@
         <v>1</v>
       </c>
       <c r="C45" s="5">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="D45" s="5">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="17"/>
@@ -4705,11 +4706,11 @@
         <v>1</v>
       </c>
       <c r="C46" s="5">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="D46" s="5">
         <f t="shared" si="2"/>
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="17"/>
@@ -4722,11 +4723,11 @@
         <v>1</v>
       </c>
       <c r="C47" s="5">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="17"/>
@@ -4739,11 +4740,11 @@
         <v>1</v>
       </c>
       <c r="C48" s="5">
-        <v>384</v>
+        <v>194</v>
       </c>
       <c r="D48" s="5">
         <f t="shared" si="2"/>
-        <v>384</v>
+        <v>194</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="17"/>
@@ -4756,11 +4757,11 @@
         <v>1</v>
       </c>
       <c r="C49" s="5">
-        <v>233</v>
+        <v>384</v>
       </c>
       <c r="D49" s="5">
         <f t="shared" si="2"/>
-        <v>233</v>
+        <v>384</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="17"/>
@@ -4790,11 +4791,11 @@
         <v>1</v>
       </c>
       <c r="C51" s="5">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="17"/>
@@ -4807,28 +4808,28 @@
         <v>1</v>
       </c>
       <c r="C52" s="5">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="D52" s="5">
         <f t="shared" si="2"/>
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="15" t="s">
+      <c r="A53" t="s">
         <v>91</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
       </c>
       <c r="C53" s="5">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="2"/>
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="17"/>
@@ -4841,11 +4842,11 @@
         <v>1</v>
       </c>
       <c r="C54" s="5">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" si="2"/>
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="17"/>
@@ -4858,11 +4859,11 @@
         <v>1</v>
       </c>
       <c r="C55" s="5">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D55" s="5">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="17"/>
@@ -4875,86 +4876,103 @@
         <v>1</v>
       </c>
       <c r="C56" s="5">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D56" s="5">
         <f t="shared" si="2"/>
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="6" t="s">
-        <v>8</v>
+      <c r="A57" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
       </c>
       <c r="C57" s="5">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D57" s="5">
         <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5">
         <v>195</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" ht="15.6" spans="1:6">
-      <c r="A58" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58" s="5">
-        <v>319</v>
       </c>
       <c r="D58" s="5">
         <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" ht="15.6" spans="1:6">
+      <c r="A59" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5">
         <v>319</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59" s="5">
-        <v>85</v>
       </c>
       <c r="D59" s="5">
         <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5">
         <v>85</v>
       </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="3:5">
-      <c r="C60" s="13" t="s">
+      <c r="D60" s="5">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="16">
-        <f>SUM(D18:D59)</f>
-        <v>10751</v>
-      </c>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="3:5">
-      <c r="C61" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="21">
-        <f>D60+D16+D9</f>
-        <v>14878</v>
-      </c>
-      <c r="E61" s="21"/>
+      <c r="D61" s="16">
+        <f>SUM(D18:D60)</f>
+        <v>11050</v>
+      </c>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="21">
+        <f>D61+D16+D9</f>
+        <v>15177</v>
+      </c>
+      <c r="E62" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4982,178 +5000,178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
         <v>122</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Supplies.xlsx
+++ b/Supplies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8952" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Estimate (Inspired)" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="131">
   <si>
     <t>Quantity</t>
   </si>
@@ -172,7 +172,10 @@
     <t>125mL FO - Parfum Aromatics Co.</t>
   </si>
   <si>
-    <t>Dear Polly</t>
+    <t>Dear Polly, Lys Mediterranee</t>
+  </si>
+  <si>
+    <t>Gaiac 10, Vetyver, Eternity Now</t>
   </si>
   <si>
     <t>Qty</t>
@@ -1316,23 +1319,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1817,8 +1820,8 @@
   <sheetPr/>
   <dimension ref="A1:G1012"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63:F66"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
@@ -2761,43 +2764,43 @@
     </row>
     <row r="56" ht="14.25" customHeight="1"/>
     <row r="57" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="51">
+      <c r="B57" s="9">
         <v>50</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="9">
         <v>20</v>
       </c>
-      <c r="D57" s="50">
-        <f t="shared" ref="D57:D68" si="1">B57*C57</f>
+      <c r="D57" s="22">
+        <f t="shared" ref="D57:D70" si="1">B57*C57</f>
         <v>1000</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="52">
+      <c r="F57" s="50">
         <f>996+105+22</f>
         <v>1123</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="51">
-        <v>1</v>
-      </c>
-      <c r="C58" s="51">
+      <c r="B58" s="9">
+        <v>1</v>
+      </c>
+      <c r="C58" s="9">
         <v>105</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D58" s="22">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="52"/>
+      <c r="F58" s="50"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" spans="1:6">
       <c r="A59" s="22" t="s">
@@ -2816,7 +2819,7 @@
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="52">
+      <c r="F59" s="50">
         <f>92+58+3</f>
         <v>153</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>58</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="52"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" ht="14.25" customHeight="1" spans="1:6">
       <c r="A61" s="22" t="s">
@@ -2855,7 +2858,7 @@
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="50">
         <f>690+45+15</f>
         <v>750</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>125</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="52"/>
+      <c r="F62" s="50"/>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:7">
       <c r="A63" s="22" t="s">
@@ -2918,7 +2921,7 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="26"/>
-      <c r="G64" s="54"/>
+      <c r="G64" s="51"/>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:7">
       <c r="A65" s="22" t="s">
@@ -2936,7 +2939,7 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="26"/>
-      <c r="G65" s="54"/>
+      <c r="G65" s="51"/>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:7">
       <c r="A66" s="12" t="s">
@@ -2954,50 +2957,92 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="26"/>
-      <c r="G66" s="55"/>
+      <c r="G66" s="52"/>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A67" t="s">
+      <c r="A67" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="5">
-        <v>1</v>
-      </c>
-      <c r="C67" s="5">
-        <v>813</v>
-      </c>
-      <c r="D67" s="56">
+      <c r="B67" s="54">
+        <v>1</v>
+      </c>
+      <c r="C67" s="54">
+        <f>813+821</f>
+        <v>1634</v>
+      </c>
+      <c r="D67" s="53">
         <f t="shared" si="1"/>
-        <v>813</v>
+        <v>1634</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="5"/>
+      <c r="F67" s="26">
+        <f>1270+8+26</f>
+        <v>1304</v>
+      </c>
       <c r="G67" s="39" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:7">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68" s="5">
+      <c r="B68" s="54">
+        <v>1</v>
+      </c>
+      <c r="C68" s="54">
         <v>58</v>
       </c>
-      <c r="D68" s="56">
+      <c r="D68" s="53">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="55"/>
-    </row>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="52"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5">
+        <f>650+520+520</f>
+        <v>1690</v>
+      </c>
+      <c r="D69" s="56">
+        <f t="shared" si="1"/>
+        <v>1690</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>58</v>
+      </c>
+      <c r="D70" s="56">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
     <row r="71" ht="14.25" customHeight="1"/>
     <row r="72" ht="14.25" customHeight="1"/>
     <row r="73" ht="14.25" customHeight="1"/>
@@ -3941,7 +3986,7 @@
     <row r="1011" ht="14.25" customHeight="1"/>
     <row r="1012" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="E11:E12"/>
@@ -3966,6 +4011,7 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E63:E66"/>
     <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F5:F10"/>
     <mergeCell ref="F11:F12"/>
@@ -3990,6 +4036,7 @@
     <mergeCell ref="F61:F62"/>
     <mergeCell ref="F63:F66"/>
     <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G33:G35"/>
     <mergeCell ref="G36:G37"/>
@@ -4006,7 +4053,7 @@
   <sheetPr/>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -4021,7 +4068,7 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4041,7 +4088,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -4094,7 +4141,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="8">
         <v>5</v>
@@ -4110,7 +4157,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8">
         <v>15</v>
@@ -4143,7 +4190,7 @@
     <row r="9" spans="2:5">
       <c r="B9" s="4"/>
       <c r="C9" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="14">
         <f>SUM(D3:D8)</f>
@@ -4165,7 +4212,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -4179,7 +4226,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4200,7 +4247,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5">
         <v>1</v>
@@ -4216,7 +4263,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5">
         <v>30</v>
@@ -4233,7 +4280,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="C16" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="16">
         <f>SUM(D12:D15)</f>
@@ -4243,12 +4290,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -4257,14 +4304,14 @@
         <v>295</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ref="D18:D29" si="1">C18*B18</f>
+        <f t="shared" ref="D18:D40" si="1">C18*B18</f>
         <v>295</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
@@ -4280,7 +4327,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -4296,7 +4343,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -4312,7 +4359,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -4328,7 +4375,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -4344,7 +4391,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
@@ -4360,7 +4407,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -4376,7 +4423,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -4392,7 +4439,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -4408,7 +4455,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -4440,7 +4487,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="5">
         <v>1</v>
@@ -4449,14 +4496,14 @@
         <v>254</v>
       </c>
       <c r="D30" s="5">
-        <f>C30*B30</f>
+        <f t="shared" si="1"/>
         <v>254</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -4465,14 +4512,14 @@
         <v>195</v>
       </c>
       <c r="D31" s="5">
-        <f>C31*B31</f>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
@@ -4481,14 +4528,14 @@
         <v>395</v>
       </c>
       <c r="D32" s="5">
-        <f>C32*B32</f>
+        <f t="shared" si="1"/>
         <v>395</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
@@ -4497,14 +4544,14 @@
         <v>275</v>
       </c>
       <c r="D33" s="5">
-        <f>C33*B33</f>
+        <f t="shared" si="1"/>
         <v>275</v>
       </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -4513,14 +4560,14 @@
         <v>215</v>
       </c>
       <c r="D34" s="5">
-        <f>C34*B34</f>
+        <f t="shared" si="1"/>
         <v>215</v>
       </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -4529,14 +4576,14 @@
         <v>285</v>
       </c>
       <c r="D35" s="5">
-        <f>C35*B35</f>
+        <f t="shared" si="1"/>
         <v>285</v>
       </c>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -4545,14 +4592,14 @@
         <v>245</v>
       </c>
       <c r="D36" s="5">
-        <f>C36*B36</f>
+        <f t="shared" si="1"/>
         <v>245</v>
       </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="5">
         <v>1</v>
@@ -4561,14 +4608,14 @@
         <v>308</v>
       </c>
       <c r="D37" s="5">
-        <f>C37*B37</f>
+        <f t="shared" si="1"/>
         <v>308</v>
       </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
@@ -4577,14 +4624,14 @@
         <v>315</v>
       </c>
       <c r="D38" s="5">
-        <f>C38*B38</f>
+        <f t="shared" si="1"/>
         <v>315</v>
       </c>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
@@ -4593,14 +4640,14 @@
         <v>339</v>
       </c>
       <c r="D39" s="5">
-        <f>C39*B39</f>
+        <f t="shared" si="1"/>
         <v>339</v>
       </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -4609,7 +4656,7 @@
         <v>299</v>
       </c>
       <c r="D40" s="5">
-        <f>C40*B40</f>
+        <f t="shared" si="1"/>
         <v>299</v>
       </c>
       <c r="E40" s="5"/>
@@ -4632,7 +4679,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
@@ -4649,7 +4696,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -4666,7 +4713,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -4683,7 +4730,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
@@ -4700,7 +4747,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
@@ -4717,7 +4764,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
@@ -4734,7 +4781,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -4751,7 +4798,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -4768,7 +4815,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -4785,7 +4832,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -4802,7 +4849,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -4819,7 +4866,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -4836,7 +4883,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -4853,7 +4900,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -4870,7 +4917,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -4887,7 +4934,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -4921,7 +4968,7 @@
     </row>
     <row r="59" ht="15.6" spans="1:6">
       <c r="A59" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -4935,7 +4982,7 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4956,7 +5003,7 @@
     </row>
     <row r="61" spans="3:5">
       <c r="C61" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D61" s="16">
         <f>SUM(D18:D60)</f>
@@ -4966,7 +5013,7 @@
     </row>
     <row r="62" spans="3:5">
       <c r="C62" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D62" s="21">
         <f>D61+D16+D9</f>
@@ -5000,178 +5047,178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
         <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Supplies.xlsx
+++ b/Supplies.xlsx
@@ -175,7 +175,7 @@
     <t>Dear Polly, Lys Mediterranee</t>
   </si>
   <si>
-    <t>Gaiac 10, Vetyver, Eternity Now</t>
+    <t>Gaiac 10, Escape M, Eternity Now</t>
   </si>
   <si>
     <t>Qty</t>
@@ -1821,7 +1821,7 @@
   <dimension ref="A1:G1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63:E66"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4298245614035" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
